--- a/defv10.xlsx
+++ b/defv10.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B71D6AAF-3B4A-48C8-9427-D060284CC69A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AE62752-CDC1-4BA6-9992-3F37FCC09B35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -25,9 +25,9 @@
     <sheet name="Planilha9" sheetId="11" r:id="rId15"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Perpelxit (2)'!$B$1:$G$141</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Perpelxit (2)'!$A$1:$H$141</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Planilha11!$A$1:$E$34</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">Planilha6!$B$1:$D$141</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">Planilha6!$B$1:$G$146</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <pivotCaches>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4968" uniqueCount="2532">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5579" uniqueCount="2533">
   <si>
     <t>Dívida Líquida/Patrimônio Líquido</t>
   </si>
@@ -8239,6 +8239,9 @@
   </si>
   <si>
     <t>OK</t>
+  </si>
+  <si>
+    <t>Faixa 6</t>
   </si>
 </sst>
 </file>
@@ -13058,1382 +13061,2832 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88565B4B-D710-4A69-A511-1E4E3ACD2D53}">
-  <dimension ref="A1:D141"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="B1:G146"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="52.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.6640625" customWidth="1"/>
+    <col min="3" max="3" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="255.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B1" t="s">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B1" s="14" t="s">
         <v>250</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>504</v>
+      </c>
+      <c r="E1" s="14" t="s">
         <v>505</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" s="14" t="s">
+        <v>505</v>
+      </c>
+      <c r="G1" s="14" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>2529</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B2" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
-        <v>1664</v>
+      <c r="C2" s="15" t="s">
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>1665</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2529</v>
-      </c>
+        <v>958</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1919</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
-        <v>1666</v>
+      <c r="C3" s="15" t="s">
+        <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>1667</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>2529</v>
-      </c>
+        <v>507</v>
+      </c>
+      <c r="E3" t="s">
+        <v>977</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1664</v>
+      </c>
+      <c r="G3" t="s">
+        <v>1665</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" t="s">
-        <v>1668</v>
+      <c r="C4" s="15" t="s">
+        <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>1669</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>2529</v>
-      </c>
+        <v>512</v>
+      </c>
+      <c r="E4" t="s">
+        <v>513</v>
+      </c>
+      <c r="F4" t="s">
+        <v>1666</v>
+      </c>
+      <c r="G4" t="s">
+        <v>1667</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" t="s">
-        <v>1670</v>
+      <c r="C5" s="15" t="s">
+        <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>1671</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>2529</v>
-      </c>
+        <v>517</v>
+      </c>
+      <c r="E5" t="s">
+        <v>518</v>
+      </c>
+      <c r="F5" t="s">
+        <v>1668</v>
+      </c>
+      <c r="G5" t="s">
+        <v>1669</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>8</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>522</v>
+      </c>
+      <c r="E6" t="s">
+        <v>523</v>
+      </c>
+      <c r="F6" t="s">
+        <v>1670</v>
+      </c>
+      <c r="G6" t="s">
+        <v>1671</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
+        <v>527</v>
+      </c>
+      <c r="E7" t="s">
+        <v>528</v>
+      </c>
+      <c r="F7" t="s">
         <v>1672</v>
       </c>
-      <c r="D6" t="s">
+      <c r="G7" t="s">
         <v>1673</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>2529</v>
-      </c>
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" t="s">
-        <v>1674</v>
-      </c>
-      <c r="D7" t="s">
-        <v>1675</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>2529</v>
-      </c>
+    <row r="8" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>16</v>
       </c>
-      <c r="C8" t="s">
-        <v>1676</v>
+      <c r="C8" s="15" t="s">
+        <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>1677</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>2529</v>
-      </c>
+        <v>958</v>
+      </c>
+      <c r="E8" t="s">
+        <v>1938</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>16</v>
       </c>
-      <c r="C9" t="s">
-        <v>1678</v>
+      <c r="C9" s="15" t="s">
+        <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>1679</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>2529</v>
-      </c>
+        <v>507</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1942</v>
+      </c>
+      <c r="F9" t="s">
+        <v>1674</v>
+      </c>
+      <c r="G9" t="s">
+        <v>1675</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>16</v>
       </c>
-      <c r="C10" t="s">
-        <v>1680</v>
+      <c r="C10" s="15" t="s">
+        <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>1681</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>2529</v>
-      </c>
+        <v>512</v>
+      </c>
+      <c r="E10" t="s">
+        <v>536</v>
+      </c>
+      <c r="F10" t="s">
+        <v>1676</v>
+      </c>
+      <c r="G10" t="s">
+        <v>1677</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>16</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" t="s">
+        <v>517</v>
+      </c>
+      <c r="E11" t="s">
+        <v>540</v>
+      </c>
+      <c r="F11" t="s">
+        <v>1678</v>
+      </c>
+      <c r="G11" t="s">
+        <v>1679</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" t="s">
+        <v>522</v>
+      </c>
+      <c r="E12" t="s">
+        <v>544</v>
+      </c>
+      <c r="F12" t="s">
+        <v>1680</v>
+      </c>
+      <c r="G12" t="s">
+        <v>1681</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" t="s">
+        <v>527</v>
+      </c>
+      <c r="E13" t="s">
+        <v>528</v>
+      </c>
+      <c r="F13" t="s">
         <v>1672</v>
       </c>
-      <c r="D11" t="s">
+      <c r="G13" t="s">
         <v>1682</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>2531</v>
-      </c>
-      <c r="B12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" t="s">
-        <v>1683</v>
-      </c>
-      <c r="D12" t="s">
-        <v>1684</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>2531</v>
-      </c>
-      <c r="B13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" t="s">
-        <v>1685</v>
-      </c>
-      <c r="D13" t="s">
-        <v>1686</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>2531</v>
-      </c>
+    <row r="14" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>0</v>
       </c>
-      <c r="C14" t="s">
-        <v>1687</v>
+      <c r="C14" s="15" t="s">
+        <v>0</v>
       </c>
       <c r="D14" t="s">
-        <v>1688</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>2531</v>
-      </c>
+        <v>958</v>
+      </c>
+      <c r="E14" t="s">
+        <v>1958</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>0</v>
       </c>
-      <c r="C15" t="s">
-        <v>1689</v>
+      <c r="C15" s="15" t="s">
+        <v>0</v>
       </c>
       <c r="D15" t="s">
-        <v>1690</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>2531</v>
-      </c>
+        <v>507</v>
+      </c>
+      <c r="E15" t="s">
+        <v>634</v>
+      </c>
+      <c r="F15" t="s">
+        <v>1683</v>
+      </c>
+      <c r="G15" t="s">
+        <v>1684</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>0</v>
       </c>
-      <c r="C16" s="21" t="s">
+      <c r="C16" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" t="s">
+        <v>512</v>
+      </c>
+      <c r="E16" t="s">
+        <v>1965</v>
+      </c>
+      <c r="F16" t="s">
+        <v>1685</v>
+      </c>
+      <c r="G16" t="s">
+        <v>1686</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" t="s">
+        <v>517</v>
+      </c>
+      <c r="E17" t="s">
+        <v>1969</v>
+      </c>
+      <c r="F17" t="s">
+        <v>1687</v>
+      </c>
+      <c r="G17" t="s">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" t="s">
+        <v>522</v>
+      </c>
+      <c r="E18" t="s">
+        <v>1973</v>
+      </c>
+      <c r="F18" t="s">
+        <v>1689</v>
+      </c>
+      <c r="G18" t="s">
+        <v>1690</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19" t="s">
+        <v>527</v>
+      </c>
+      <c r="E19" s="21" t="s">
+        <v>528</v>
+      </c>
+      <c r="F19" s="21" t="s">
         <v>1691</v>
       </c>
-      <c r="D16" t="s">
+      <c r="G19" t="s">
         <v>1692</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>2531</v>
-      </c>
-      <c r="B17" t="s">
-        <v>85</v>
-      </c>
-      <c r="C17" t="s">
-        <v>1693</v>
-      </c>
-      <c r="D17" t="s">
-        <v>1694</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>2531</v>
-      </c>
-      <c r="B18" t="s">
-        <v>85</v>
-      </c>
-      <c r="C18" t="s">
-        <v>1695</v>
-      </c>
-      <c r="D18" t="s">
-        <v>1696</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>2531</v>
-      </c>
-      <c r="B19" t="s">
-        <v>85</v>
-      </c>
-      <c r="C19" t="s">
-        <v>1697</v>
-      </c>
-      <c r="D19" t="s">
-        <v>1698</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>2531</v>
-      </c>
+    <row r="20" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>85</v>
       </c>
-      <c r="C20" t="s">
-        <v>1699</v>
+      <c r="C20" s="15" t="s">
+        <v>85</v>
       </c>
       <c r="D20" t="s">
-        <v>1700</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>2531</v>
-      </c>
+        <v>958</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20" s="21"/>
+    </row>
+    <row r="21" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>85</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="D21" t="s">
+        <v>507</v>
+      </c>
+      <c r="E21" t="s">
+        <v>1983</v>
+      </c>
+      <c r="F21" t="s">
+        <v>1693</v>
+      </c>
+      <c r="G21" t="s">
+        <v>1694</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>85</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="D22" t="s">
+        <v>512</v>
+      </c>
+      <c r="E22" t="s">
+        <v>1154</v>
+      </c>
+      <c r="F22" t="s">
+        <v>1695</v>
+      </c>
+      <c r="G22" t="s">
+        <v>1696</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>85</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="D23" t="s">
+        <v>517</v>
+      </c>
+      <c r="E23" t="s">
+        <v>577</v>
+      </c>
+      <c r="F23" t="s">
+        <v>1697</v>
+      </c>
+      <c r="G23" t="s">
+        <v>1698</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>85</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="D24" t="s">
+        <v>522</v>
+      </c>
+      <c r="E24" t="s">
+        <v>581</v>
+      </c>
+      <c r="F24" t="s">
+        <v>1699</v>
+      </c>
+      <c r="G24" t="s">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>85</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="D25" t="s">
+        <v>527</v>
+      </c>
+      <c r="E25" t="s">
+        <v>585</v>
+      </c>
+      <c r="F25" t="s">
         <v>1701</v>
       </c>
-      <c r="D21" t="s">
+      <c r="G25" t="s">
         <v>1702</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>2531</v>
-      </c>
-      <c r="B22" t="s">
-        <v>106</v>
-      </c>
-      <c r="C22" t="s">
-        <v>1703</v>
-      </c>
-      <c r="D22" t="s">
-        <v>1704</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>2531</v>
-      </c>
-      <c r="B23" t="s">
-        <v>106</v>
-      </c>
-      <c r="C23" t="s">
-        <v>1705</v>
-      </c>
-      <c r="D23" t="s">
-        <v>1706</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>2531</v>
-      </c>
-      <c r="B24" t="s">
-        <v>106</v>
-      </c>
-      <c r="C24" t="s">
-        <v>1707</v>
-      </c>
-      <c r="D24" t="s">
-        <v>1708</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>2531</v>
-      </c>
-      <c r="B25" t="s">
-        <v>106</v>
-      </c>
-      <c r="C25" t="s">
-        <v>1709</v>
-      </c>
-      <c r="D25" t="s">
-        <v>1710</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>2531</v>
-      </c>
+    <row r="26" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>106</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="D26" t="s">
+        <v>958</v>
+      </c>
+      <c r="E26" t="s">
+        <v>1999</v>
+      </c>
+      <c r="F26" t="s">
+        <v>1703</v>
+      </c>
+      <c r="G26" t="s">
+        <v>1704</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>106</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="D27" t="s">
+        <v>507</v>
+      </c>
+      <c r="E27" t="s">
+        <v>593</v>
+      </c>
+      <c r="F27" t="s">
+        <v>1705</v>
+      </c>
+      <c r="G27" t="s">
+        <v>1706</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>106</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="D28" t="s">
+        <v>512</v>
+      </c>
+      <c r="E28" t="s">
+        <v>597</v>
+      </c>
+      <c r="F28" t="s">
+        <v>1707</v>
+      </c>
+      <c r="G28" t="s">
+        <v>1708</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>106</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="D29" t="s">
+        <v>517</v>
+      </c>
+      <c r="E29" t="s">
+        <v>601</v>
+      </c>
+      <c r="F29" t="s">
+        <v>1709</v>
+      </c>
+      <c r="G29" t="s">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>106</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="D30" t="s">
+        <v>527</v>
+      </c>
+      <c r="E30" t="s">
+        <v>2012</v>
+      </c>
+      <c r="F30" t="s">
         <v>1711</v>
       </c>
-      <c r="D26" t="s">
+      <c r="G30" t="s">
         <v>1712</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B27" t="s">
-        <v>93</v>
-      </c>
-      <c r="C27" t="s">
-        <v>1713</v>
-      </c>
-      <c r="D27" t="s">
-        <v>1714</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B28" t="s">
-        <v>93</v>
-      </c>
-      <c r="C28" t="s">
-        <v>1715</v>
-      </c>
-      <c r="D28" t="s">
-        <v>1716</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B29" t="s">
-        <v>93</v>
-      </c>
-      <c r="C29" t="s">
-        <v>1717</v>
-      </c>
-      <c r="D29" t="s">
-        <v>1718</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B30" t="s">
-        <v>93</v>
-      </c>
-      <c r="C30" t="s">
-        <v>1719</v>
-      </c>
-      <c r="D30" t="s">
-        <v>1720</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>93</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="D31" t="s">
+        <v>958</v>
+      </c>
+      <c r="E31" t="s">
+        <v>2016</v>
+      </c>
+      <c r="F31" t="s">
+        <v>1713</v>
+      </c>
+      <c r="G31" t="s">
+        <v>1714</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>93</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="D32" t="s">
+        <v>507</v>
+      </c>
+      <c r="E32" t="s">
+        <v>597</v>
+      </c>
+      <c r="F32" t="s">
+        <v>1715</v>
+      </c>
+      <c r="G32" t="s">
+        <v>1716</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>93</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="D33" t="s">
+        <v>512</v>
+      </c>
+      <c r="E33" t="s">
+        <v>615</v>
+      </c>
+      <c r="F33" t="s">
+        <v>1717</v>
+      </c>
+      <c r="G33" t="s">
+        <v>1718</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>93</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="D34" t="s">
+        <v>517</v>
+      </c>
+      <c r="E34" t="s">
+        <v>618</v>
+      </c>
+      <c r="F34" t="s">
+        <v>1719</v>
+      </c>
+      <c r="G34" t="s">
+        <v>1720</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>93</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="D35" t="s">
+        <v>527</v>
+      </c>
+      <c r="E35" t="s">
+        <v>2029</v>
+      </c>
+      <c r="F35" t="s">
         <v>1721</v>
       </c>
-      <c r="D31" t="s">
+      <c r="G35" t="s">
         <v>1722</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B32" t="s">
+    <row r="36" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
         <v>38</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C36" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D36" t="s">
+        <v>958</v>
+      </c>
+      <c r="E36" t="s">
+        <v>2033</v>
+      </c>
+      <c r="F36" t="s">
         <v>1723</v>
       </c>
-      <c r="D32" t="s">
+      <c r="G36" t="s">
         <v>1724</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C33" t="s">
+    <row r="37" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D37" t="s">
+        <v>507</v>
+      </c>
+      <c r="E37" t="s">
+        <v>630</v>
+      </c>
+      <c r="F37" t="s">
         <v>1725</v>
       </c>
-      <c r="D33" t="s">
+      <c r="G37" t="s">
         <v>1726</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C34" t="s">
+    <row r="38" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D38" t="s">
+        <v>517</v>
+      </c>
+      <c r="E38" t="s">
+        <v>634</v>
+      </c>
+      <c r="F38" t="s">
         <v>1727</v>
       </c>
-      <c r="D34" t="s">
+      <c r="G38" t="s">
         <v>1728</v>
       </c>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C35" t="s">
+    <row r="39" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B39" t="s">
+        <v>38</v>
+      </c>
+      <c r="C39" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D39" t="s">
+        <v>522</v>
+      </c>
+      <c r="E39" t="s">
+        <v>638</v>
+      </c>
+      <c r="F39" t="s">
         <v>1729</v>
       </c>
-      <c r="D35" t="s">
+      <c r="G39" t="s">
         <v>1730</v>
       </c>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C36" t="s">
+    <row r="40" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D40" t="s">
+        <v>527</v>
+      </c>
+      <c r="E40" t="s">
+        <v>642</v>
+      </c>
+      <c r="F40" t="s">
         <v>1731</v>
       </c>
-      <c r="D36" t="s">
+      <c r="G40" t="s">
         <v>1732</v>
       </c>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B37" t="s">
+    <row r="41" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B41" t="s">
         <v>360</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C41" s="15" t="s">
+        <v>360</v>
+      </c>
+      <c r="D41" t="s">
+        <v>958</v>
+      </c>
+      <c r="E41" t="s">
+        <v>2049</v>
+      </c>
+      <c r="F41" t="s">
         <v>1733</v>
       </c>
-      <c r="D37" t="s">
+      <c r="G41" t="s">
         <v>1734</v>
       </c>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C38" t="s">
+    <row r="42" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B42" t="s">
+        <v>360</v>
+      </c>
+      <c r="C42" s="15" t="s">
+        <v>360</v>
+      </c>
+      <c r="D42" t="s">
+        <v>507</v>
+      </c>
+      <c r="E42" t="s">
+        <v>650</v>
+      </c>
+      <c r="F42" t="s">
         <v>1735</v>
       </c>
-      <c r="D38" t="s">
+      <c r="G42" t="s">
         <v>1736</v>
       </c>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C39" t="s">
+    <row r="43" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B43" t="s">
+        <v>360</v>
+      </c>
+      <c r="C43" s="15" t="s">
+        <v>360</v>
+      </c>
+      <c r="D43" t="s">
+        <v>517</v>
+      </c>
+      <c r="E43" t="s">
+        <v>654</v>
+      </c>
+      <c r="F43" t="s">
         <v>1737</v>
       </c>
-      <c r="D39" t="s">
+      <c r="G43" t="s">
         <v>1738</v>
       </c>
     </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C40" t="s">
+    <row r="44" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B44" t="s">
+        <v>360</v>
+      </c>
+      <c r="C44" s="15" t="s">
+        <v>360</v>
+      </c>
+      <c r="D44" t="s">
+        <v>522</v>
+      </c>
+      <c r="E44" t="s">
+        <v>658</v>
+      </c>
+      <c r="F44" t="s">
         <v>1739</v>
       </c>
-      <c r="D40" t="s">
+      <c r="G44" t="s">
         <v>1740</v>
       </c>
     </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C41" t="s">
+    <row r="45" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B45" t="s">
+        <v>360</v>
+      </c>
+      <c r="C45" s="15" t="s">
+        <v>360</v>
+      </c>
+      <c r="D45" t="s">
+        <v>527</v>
+      </c>
+      <c r="E45" t="s">
+        <v>2062</v>
+      </c>
+      <c r="F45" t="s">
         <v>1741</v>
       </c>
-      <c r="D41" t="s">
+      <c r="G45" t="s">
         <v>1742</v>
       </c>
     </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B42" t="s">
+    <row r="46" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B46" t="s">
         <v>666</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C46" s="15" t="s">
+        <v>2066</v>
+      </c>
+      <c r="D46" t="s">
+        <v>958</v>
+      </c>
+      <c r="E46" t="s">
+        <v>667</v>
+      </c>
+      <c r="F46" t="s">
         <v>1691</v>
       </c>
-      <c r="D42" t="s">
+      <c r="G46" t="s">
         <v>1743</v>
       </c>
     </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C43" t="s">
+    <row r="47" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B47" t="s">
+        <v>666</v>
+      </c>
+      <c r="C47" s="15" t="s">
+        <v>2066</v>
+      </c>
+      <c r="D47" t="s">
+        <v>507</v>
+      </c>
+      <c r="E47" t="s">
+        <v>671</v>
+      </c>
+      <c r="F47" t="s">
         <v>1744</v>
       </c>
-      <c r="D43" t="s">
+      <c r="G47" t="s">
         <v>1745</v>
       </c>
     </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C44" t="s">
+    <row r="48" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B48" t="s">
+        <v>666</v>
+      </c>
+      <c r="C48" s="15" t="s">
+        <v>2066</v>
+      </c>
+      <c r="D48" t="s">
+        <v>517</v>
+      </c>
+      <c r="E48" t="s">
+        <v>675</v>
+      </c>
+      <c r="F48" t="s">
         <v>1746</v>
       </c>
-      <c r="D44" t="s">
+      <c r="G48" t="s">
         <v>1747</v>
       </c>
     </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C45" t="s">
+    <row r="49" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B49" t="s">
+        <v>666</v>
+      </c>
+      <c r="C49" s="15" t="s">
+        <v>2066</v>
+      </c>
+      <c r="D49" t="s">
+        <v>522</v>
+      </c>
+      <c r="E49" t="s">
+        <v>679</v>
+      </c>
+      <c r="F49" t="s">
         <v>1748</v>
       </c>
-      <c r="D45" t="s">
+      <c r="G49" t="s">
         <v>1749</v>
       </c>
     </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C46" t="s">
+    <row r="50" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B50" t="s">
+        <v>666</v>
+      </c>
+      <c r="C50" s="15" t="s">
+        <v>2066</v>
+      </c>
+      <c r="D50" t="s">
+        <v>527</v>
+      </c>
+      <c r="E50" t="s">
+        <v>2062</v>
+      </c>
+      <c r="F50" t="s">
         <v>1750</v>
       </c>
-      <c r="D46" t="s">
+      <c r="G50" t="s">
         <v>1751</v>
       </c>
     </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B47" t="s">
+    <row r="51" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B51" t="s">
         <v>101</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C51" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="D51" t="s">
+        <v>958</v>
+      </c>
+      <c r="E51" t="s">
+        <v>2082</v>
+      </c>
+      <c r="F51" t="s">
         <v>1691</v>
       </c>
-      <c r="D47" t="s">
+      <c r="G51" t="s">
         <v>1752</v>
       </c>
     </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C48" t="s">
+    <row r="52" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B52" t="s">
+        <v>101</v>
+      </c>
+      <c r="C52" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="D52" t="s">
+        <v>507</v>
+      </c>
+      <c r="E52" t="s">
+        <v>1357</v>
+      </c>
+      <c r="F52" t="s">
         <v>1753</v>
       </c>
-      <c r="D48" t="s">
+      <c r="G52" t="s">
         <v>1754</v>
       </c>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C49" t="s">
+    <row r="53" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B53" t="s">
+        <v>101</v>
+      </c>
+      <c r="C53" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="D53" t="s">
+        <v>517</v>
+      </c>
+      <c r="E53" t="s">
+        <v>1441</v>
+      </c>
+      <c r="F53" t="s">
         <v>1755</v>
       </c>
-      <c r="D49" t="s">
+      <c r="G53" t="s">
         <v>1756</v>
       </c>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C50" t="s">
+    <row r="54" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B54" t="s">
+        <v>101</v>
+      </c>
+      <c r="C54" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="D54" t="s">
+        <v>522</v>
+      </c>
+      <c r="E54" t="s">
+        <v>2092</v>
+      </c>
+      <c r="F54" t="s">
         <v>1757</v>
       </c>
-      <c r="D50" t="s">
+      <c r="G54" t="s">
         <v>1758</v>
       </c>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C51" t="s">
+    <row r="55" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B55" t="s">
+        <v>101</v>
+      </c>
+      <c r="C55" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="D55" t="s">
+        <v>527</v>
+      </c>
+      <c r="E55" t="s">
+        <v>2096</v>
+      </c>
+      <c r="F55" t="s">
         <v>1759</v>
       </c>
-      <c r="D51" t="s">
+      <c r="G55" t="s">
         <v>1760</v>
       </c>
     </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B52" t="s">
+    <row r="56" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B56" t="s">
         <v>73</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C56" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="D56" t="s">
+        <v>958</v>
+      </c>
+      <c r="E56" t="s">
+        <v>2100</v>
+      </c>
+      <c r="F56" t="s">
         <v>1691</v>
       </c>
-      <c r="D52" t="s">
+      <c r="G56" t="s">
         <v>1761</v>
       </c>
     </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C53" t="s">
+    <row r="57" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B57" t="s">
+        <v>73</v>
+      </c>
+      <c r="C57" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="D57" t="s">
+        <v>507</v>
+      </c>
+      <c r="E57" t="s">
+        <v>1433</v>
+      </c>
+      <c r="F57" t="s">
         <v>1762</v>
       </c>
-      <c r="D53" t="s">
+      <c r="G57" t="s">
         <v>1763</v>
       </c>
     </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C54" t="s">
+    <row r="58" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B58" t="s">
+        <v>73</v>
+      </c>
+      <c r="C58" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="D58" t="s">
+        <v>517</v>
+      </c>
+      <c r="E58" t="s">
+        <v>1471</v>
+      </c>
+      <c r="F58" t="s">
         <v>1764</v>
       </c>
-      <c r="D54" t="s">
+      <c r="G58" t="s">
         <v>1765</v>
       </c>
     </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C55" t="s">
+    <row r="59" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B59" t="s">
+        <v>73</v>
+      </c>
+      <c r="C59" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="D59" t="s">
+        <v>522</v>
+      </c>
+      <c r="E59" t="s">
+        <v>1414</v>
+      </c>
+      <c r="F59" t="s">
         <v>1766</v>
       </c>
-      <c r="D55" t="s">
+      <c r="G59" t="s">
         <v>1767</v>
       </c>
     </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C56" t="s">
+    <row r="60" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B60" t="s">
+        <v>73</v>
+      </c>
+      <c r="C60" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="D60" t="s">
+        <v>527</v>
+      </c>
+      <c r="E60" t="s">
+        <v>2113</v>
+      </c>
+      <c r="F60" t="s">
         <v>1768</v>
       </c>
-      <c r="D56" t="s">
+      <c r="G60" t="s">
         <v>1769</v>
       </c>
     </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B57" t="s">
+    <row r="61" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B61" t="s">
         <v>80</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C61" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="D61" t="s">
+        <v>958</v>
+      </c>
+      <c r="E61" t="s">
+        <v>2082</v>
+      </c>
+      <c r="F61" t="s">
         <v>1691</v>
       </c>
-      <c r="D57" t="s">
+      <c r="G61" t="s">
         <v>1770</v>
       </c>
     </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C58" t="s">
+    <row r="62" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B62" t="s">
+        <v>80</v>
+      </c>
+      <c r="C62" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="D62" t="s">
+        <v>507</v>
+      </c>
+      <c r="E62" t="s">
+        <v>1471</v>
+      </c>
+      <c r="F62" t="s">
         <v>1771</v>
       </c>
-      <c r="D58" t="s">
+      <c r="G62" t="s">
         <v>1772</v>
       </c>
     </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C59" t="s">
+    <row r="63" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B63" t="s">
+        <v>80</v>
+      </c>
+      <c r="C63" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="D63" t="s">
+        <v>517</v>
+      </c>
+      <c r="E63" t="s">
+        <v>1491</v>
+      </c>
+      <c r="F63" t="s">
         <v>1773</v>
       </c>
-      <c r="D59" t="s">
+      <c r="G63" t="s">
         <v>1774</v>
       </c>
     </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C60" t="s">
+    <row r="64" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B64" t="s">
+        <v>80</v>
+      </c>
+      <c r="C64" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="D64" t="s">
+        <v>522</v>
+      </c>
+      <c r="E64" t="s">
+        <v>1441</v>
+      </c>
+      <c r="F64" t="s">
         <v>1775</v>
       </c>
-      <c r="D60" t="s">
+      <c r="G64" t="s">
         <v>1776</v>
       </c>
     </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C61" t="s">
+    <row r="65" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B65" t="s">
+        <v>80</v>
+      </c>
+      <c r="C65" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="D65" t="s">
+        <v>527</v>
+      </c>
+      <c r="E65" t="s">
+        <v>2129</v>
+      </c>
+      <c r="F65" t="s">
         <v>1777</v>
       </c>
-      <c r="D61" t="s">
+      <c r="G65" t="s">
         <v>1778</v>
       </c>
     </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B62" t="s">
+    <row r="66" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B66" t="s">
         <v>737</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C66" s="15" t="s">
+        <v>737</v>
+      </c>
+      <c r="D66" t="s">
+        <v>958</v>
+      </c>
+      <c r="E66" t="s">
+        <v>1902</v>
+      </c>
+      <c r="F66" t="s">
         <v>1691</v>
       </c>
-      <c r="D62" t="s">
+      <c r="G66" t="s">
         <v>1779</v>
       </c>
     </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C63" t="s">
+    <row r="67" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B67" t="s">
+        <v>737</v>
+      </c>
+      <c r="C67" s="15" t="s">
+        <v>737</v>
+      </c>
+      <c r="D67" t="s">
+        <v>507</v>
+      </c>
+      <c r="E67" t="s">
+        <v>1423</v>
+      </c>
+      <c r="F67" t="s">
         <v>1780</v>
       </c>
-      <c r="D63" t="s">
+      <c r="G67" t="s">
         <v>1781</v>
       </c>
     </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C64" t="s">
+    <row r="68" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B68" t="s">
+        <v>737</v>
+      </c>
+      <c r="C68" s="15" t="s">
+        <v>737</v>
+      </c>
+      <c r="D68" t="s">
+        <v>517</v>
+      </c>
+      <c r="E68" t="s">
+        <v>1433</v>
+      </c>
+      <c r="F68" t="s">
         <v>1782</v>
       </c>
-      <c r="D64" t="s">
+      <c r="G68" t="s">
         <v>1783</v>
       </c>
     </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C65" t="s">
+    <row r="69" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B69" t="s">
+        <v>737</v>
+      </c>
+      <c r="C69" s="15" t="s">
+        <v>737</v>
+      </c>
+      <c r="D69" t="s">
+        <v>522</v>
+      </c>
+      <c r="E69" t="s">
+        <v>1357</v>
+      </c>
+      <c r="F69" t="s">
         <v>1784</v>
       </c>
-      <c r="D65" t="s">
+      <c r="G69" t="s">
         <v>1785</v>
       </c>
     </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C66" t="s">
+    <row r="70" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B70" t="s">
+        <v>737</v>
+      </c>
+      <c r="C70" s="15" t="s">
+        <v>737</v>
+      </c>
+      <c r="D70" t="s">
+        <v>527</v>
+      </c>
+      <c r="E70" t="s">
+        <v>1915</v>
+      </c>
+      <c r="F70" t="s">
         <v>1786</v>
       </c>
-      <c r="D66" t="s">
+      <c r="G70" t="s">
         <v>1787</v>
       </c>
     </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B67" t="s">
+    <row r="71" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B71" t="s">
         <v>1788</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C71" s="15" t="s">
+        <v>750</v>
+      </c>
+      <c r="D71" t="s">
+        <v>958</v>
+      </c>
+      <c r="E71" t="s">
+        <v>2149</v>
+      </c>
+      <c r="F71" t="s">
         <v>1789</v>
       </c>
-      <c r="D67" t="s">
+      <c r="G71" t="s">
         <v>1790</v>
       </c>
     </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C68" t="s">
+    <row r="72" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B72" t="s">
+        <v>1788</v>
+      </c>
+      <c r="C72" s="15" t="s">
+        <v>750</v>
+      </c>
+      <c r="D72" t="s">
+        <v>507</v>
+      </c>
+      <c r="E72" t="s">
+        <v>638</v>
+      </c>
+      <c r="F72" t="s">
         <v>1791</v>
       </c>
-      <c r="D68" t="s">
+      <c r="G72" t="s">
         <v>1792</v>
       </c>
     </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C69" t="s">
+    <row r="73" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B73" t="s">
+        <v>1788</v>
+      </c>
+      <c r="C73" s="15" t="s">
+        <v>750</v>
+      </c>
+      <c r="D73" t="s">
+        <v>517</v>
+      </c>
+      <c r="E73" t="s">
+        <v>634</v>
+      </c>
+      <c r="F73" t="s">
         <v>1793</v>
       </c>
-      <c r="D69" t="s">
+      <c r="G73" t="s">
         <v>1794</v>
       </c>
     </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C70" t="s">
+    <row r="74" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B74" t="s">
+        <v>1788</v>
+      </c>
+      <c r="C74" s="15" t="s">
+        <v>750</v>
+      </c>
+      <c r="D74" t="s">
+        <v>522</v>
+      </c>
+      <c r="E74" t="s">
+        <v>630</v>
+      </c>
+      <c r="F74" t="s">
         <v>1795</v>
       </c>
-      <c r="D70" t="s">
+      <c r="G74" t="s">
         <v>1796</v>
       </c>
     </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C71" t="s">
+    <row r="75" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B75" t="s">
+        <v>1788</v>
+      </c>
+      <c r="C75" s="15" t="s">
+        <v>750</v>
+      </c>
+      <c r="D75" t="s">
+        <v>527</v>
+      </c>
+      <c r="E75" t="s">
+        <v>2033</v>
+      </c>
+      <c r="F75" t="s">
         <v>1797</v>
       </c>
-      <c r="D71" t="s">
+      <c r="G75" t="s">
         <v>1798</v>
       </c>
     </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B72" t="s">
+    <row r="76" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B76" t="s">
         <v>765</v>
       </c>
-      <c r="C72" t="s">
+      <c r="F76" t="s">
         <v>1799</v>
       </c>
-      <c r="D72" t="s">
+      <c r="G76" t="s">
         <v>1800</v>
       </c>
     </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C73" t="s">
+    <row r="77" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B77" t="s">
+        <v>765</v>
+      </c>
+      <c r="F77" t="s">
         <v>1801</v>
       </c>
-      <c r="D73" t="s">
+      <c r="G77" t="s">
         <v>1802</v>
       </c>
     </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C74" t="s">
+    <row r="78" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B78" t="s">
+        <v>765</v>
+      </c>
+      <c r="F78" t="s">
         <v>1803</v>
       </c>
-      <c r="D74" t="s">
+      <c r="G78" t="s">
         <v>1804</v>
       </c>
     </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C75" t="s">
+    <row r="79" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B79" t="s">
+        <v>765</v>
+      </c>
+      <c r="F79" t="s">
         <v>1748</v>
       </c>
-      <c r="D75" t="s">
+      <c r="G79" t="s">
         <v>1805</v>
       </c>
     </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C76" t="s">
+    <row r="80" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B80" t="s">
+        <v>765</v>
+      </c>
+      <c r="F80" t="s">
         <v>1806</v>
       </c>
-      <c r="D76" t="s">
+      <c r="G80" t="s">
         <v>1807</v>
       </c>
     </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B77" t="s">
+    <row r="81" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B81" t="s">
         <v>785</v>
       </c>
-      <c r="C77" t="s">
+      <c r="F81" t="s">
         <v>1808</v>
       </c>
-      <c r="D77" t="s">
+      <c r="G81" t="s">
         <v>1809</v>
       </c>
     </row>
-    <row r="78" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C78" t="s">
+    <row r="82" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B82" t="s">
+        <v>785</v>
+      </c>
+      <c r="F82" t="s">
         <v>1810</v>
       </c>
-      <c r="D78" t="s">
+      <c r="G82" t="s">
         <v>1811</v>
       </c>
     </row>
-    <row r="79" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C79" t="s">
+    <row r="83" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B83" t="s">
+        <v>785</v>
+      </c>
+      <c r="F83" t="s">
         <v>1812</v>
       </c>
-      <c r="D79" t="s">
+      <c r="G83" t="s">
         <v>1813</v>
       </c>
     </row>
-    <row r="80" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C80" t="s">
+    <row r="84" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B84" t="s">
+        <v>785</v>
+      </c>
+      <c r="F84" t="s">
         <v>1748</v>
       </c>
-      <c r="D80" t="s">
+      <c r="G84" t="s">
         <v>1814</v>
       </c>
     </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C81" t="s">
+    <row r="85" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B85" t="s">
+        <v>785</v>
+      </c>
+      <c r="F85" t="s">
         <v>1806</v>
       </c>
-      <c r="D81" t="s">
+      <c r="G85" t="s">
         <v>1815</v>
       </c>
     </row>
-    <row r="82" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B82" t="s">
+    <row r="86" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B86" t="s">
         <v>799</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C86" s="15" t="s">
+        <v>799</v>
+      </c>
+      <c r="D86" t="s">
+        <v>958</v>
+      </c>
+      <c r="E86" t="s">
+        <v>1999</v>
+      </c>
+      <c r="F86" t="s">
         <v>1816</v>
       </c>
-      <c r="D82" t="s">
+      <c r="G86" t="s">
         <v>1817</v>
       </c>
     </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C83" t="s">
+    <row r="87" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B87" t="s">
+        <v>799</v>
+      </c>
+      <c r="C87" s="15" t="s">
+        <v>799</v>
+      </c>
+      <c r="D87" t="s">
+        <v>507</v>
+      </c>
+      <c r="E87" t="s">
+        <v>593</v>
+      </c>
+      <c r="F87" t="s">
         <v>1818</v>
       </c>
-      <c r="D83" t="s">
+      <c r="G87" t="s">
         <v>1819</v>
       </c>
     </row>
-    <row r="84" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C84" t="s">
+    <row r="88" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B88" t="s">
+        <v>799</v>
+      </c>
+      <c r="C88" s="15" t="s">
+        <v>799</v>
+      </c>
+      <c r="D88" t="s">
+        <v>512</v>
+      </c>
+      <c r="E88" t="s">
+        <v>597</v>
+      </c>
+      <c r="F88" t="s">
         <v>1820</v>
       </c>
-      <c r="D84" t="s">
+      <c r="G88" t="s">
         <v>1821</v>
       </c>
     </row>
-    <row r="85" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C85" t="s">
+    <row r="89" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B89" t="s">
+        <v>799</v>
+      </c>
+      <c r="C89" s="15" t="s">
+        <v>799</v>
+      </c>
+      <c r="D89" t="s">
+        <v>517</v>
+      </c>
+      <c r="E89" t="s">
+        <v>601</v>
+      </c>
+      <c r="F89" t="s">
         <v>1709</v>
       </c>
-      <c r="D85" t="s">
+      <c r="G89" t="s">
         <v>1822</v>
       </c>
     </row>
-    <row r="86" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C86" t="s">
+    <row r="90" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B90" t="s">
+        <v>799</v>
+      </c>
+      <c r="C90" s="15" t="s">
+        <v>799</v>
+      </c>
+      <c r="D90" t="s">
+        <v>527</v>
+      </c>
+      <c r="E90" t="s">
+        <v>2256</v>
+      </c>
+      <c r="F90" t="s">
         <v>1711</v>
       </c>
-      <c r="D86" t="s">
+      <c r="G90" t="s">
         <v>1823</v>
       </c>
     </row>
-    <row r="87" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B87" t="s">
+    <row r="91" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B91" t="s">
         <v>816</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C91" s="15" t="s">
+        <v>816</v>
+      </c>
+      <c r="D91" t="s">
+        <v>958</v>
+      </c>
+      <c r="E91" t="s">
+        <v>2016</v>
+      </c>
+      <c r="F91" t="s">
         <v>1703</v>
       </c>
-      <c r="D87" t="s">
+      <c r="G91" t="s">
         <v>1824</v>
       </c>
     </row>
-    <row r="88" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C88" t="s">
+    <row r="92" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B92" t="s">
+        <v>816</v>
+      </c>
+      <c r="C92" s="15" t="s">
+        <v>816</v>
+      </c>
+      <c r="D92" t="s">
+        <v>507</v>
+      </c>
+      <c r="E92" t="s">
+        <v>597</v>
+      </c>
+      <c r="F92" t="s">
         <v>1825</v>
       </c>
-      <c r="D88" t="s">
+      <c r="G92" t="s">
         <v>1826</v>
       </c>
     </row>
-    <row r="89" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C89" t="s">
+    <row r="93" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B93" t="s">
+        <v>816</v>
+      </c>
+      <c r="C93" s="15" t="s">
+        <v>816</v>
+      </c>
+      <c r="D93" t="s">
+        <v>512</v>
+      </c>
+      <c r="E93" t="s">
+        <v>615</v>
+      </c>
+      <c r="F93" t="s">
         <v>1717</v>
       </c>
-      <c r="D89" t="s">
+      <c r="G93" t="s">
         <v>1827</v>
       </c>
     </row>
-    <row r="90" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C90" t="s">
+    <row r="94" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B94" t="s">
+        <v>816</v>
+      </c>
+      <c r="C94" s="15" t="s">
+        <v>816</v>
+      </c>
+      <c r="D94" t="s">
+        <v>517</v>
+      </c>
+      <c r="E94" t="s">
+        <v>618</v>
+      </c>
+      <c r="F94" t="s">
         <v>1719</v>
       </c>
-      <c r="D90" t="s">
+      <c r="G94" t="s">
         <v>1828</v>
       </c>
     </row>
-    <row r="91" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C91" t="s">
+    <row r="95" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B95" t="s">
+        <v>816</v>
+      </c>
+      <c r="C95" s="15" t="s">
+        <v>816</v>
+      </c>
+      <c r="D95" t="s">
+        <v>527</v>
+      </c>
+      <c r="E95" t="s">
+        <v>2272</v>
+      </c>
+      <c r="F95" t="s">
         <v>1721</v>
       </c>
-      <c r="D91" t="s">
+      <c r="G95" t="s">
         <v>1829</v>
       </c>
     </row>
-    <row r="92" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B92" t="s">
+    <row r="96" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B96" t="s">
         <v>832</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C96" s="15" t="s">
+        <v>832</v>
+      </c>
+      <c r="D96" t="s">
+        <v>958</v>
+      </c>
+      <c r="E96" t="s">
+        <v>2276</v>
+      </c>
+      <c r="F96" t="s">
         <v>1830</v>
       </c>
-      <c r="D92" t="s">
+      <c r="G96" t="s">
         <v>1831</v>
       </c>
     </row>
-    <row r="93" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C93" t="s">
+    <row r="97" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B97" t="s">
+        <v>832</v>
+      </c>
+      <c r="C97" s="15" t="s">
+        <v>832</v>
+      </c>
+      <c r="D97" t="s">
+        <v>507</v>
+      </c>
+      <c r="E97" t="s">
+        <v>2280</v>
+      </c>
+      <c r="F97" t="s">
         <v>1832</v>
       </c>
-      <c r="D93" t="s">
+      <c r="G97" t="s">
         <v>1833</v>
       </c>
     </row>
-    <row r="94" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C94" t="s">
+    <row r="98" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B98" t="s">
+        <v>832</v>
+      </c>
+      <c r="C98" s="15" t="s">
+        <v>832</v>
+      </c>
+      <c r="D98" t="s">
+        <v>512</v>
+      </c>
+      <c r="E98" t="s">
+        <v>593</v>
+      </c>
+      <c r="F98" t="s">
         <v>1834</v>
       </c>
-      <c r="D94" t="s">
+      <c r="G98" t="s">
         <v>1835</v>
       </c>
     </row>
-    <row r="95" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C95" t="s">
+    <row r="99" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B99" t="s">
+        <v>832</v>
+      </c>
+      <c r="C99" s="15" t="s">
+        <v>832</v>
+      </c>
+      <c r="D99" t="s">
+        <v>517</v>
+      </c>
+      <c r="E99" t="s">
+        <v>597</v>
+      </c>
+      <c r="F99" t="s">
         <v>1836</v>
       </c>
-      <c r="D95" t="s">
+      <c r="G99" t="s">
         <v>1837</v>
       </c>
     </row>
-    <row r="96" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C96" t="s">
+    <row r="100" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B100" t="s">
+        <v>832</v>
+      </c>
+      <c r="C100" s="15" t="s">
+        <v>832</v>
+      </c>
+      <c r="D100" t="s">
+        <v>527</v>
+      </c>
+      <c r="E100" t="s">
+        <v>2290</v>
+      </c>
+      <c r="F100" t="s">
         <v>1838</v>
       </c>
-      <c r="D96" t="s">
+      <c r="G100" t="s">
         <v>1839</v>
       </c>
     </row>
-    <row r="97" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B97" t="s">
+    <row r="101" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B101" t="s">
         <v>847</v>
       </c>
-      <c r="C97" t="s">
+      <c r="C101" s="15" t="s">
+        <v>847</v>
+      </c>
+      <c r="D101" t="s">
+        <v>958</v>
+      </c>
+      <c r="E101" t="s">
+        <v>2293</v>
+      </c>
+    </row>
+    <row r="102" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B102" t="s">
+        <v>847</v>
+      </c>
+      <c r="C102" s="15" t="s">
+        <v>847</v>
+      </c>
+      <c r="D102" t="s">
+        <v>507</v>
+      </c>
+      <c r="E102" t="s">
+        <v>888</v>
+      </c>
+      <c r="F102" t="s">
         <v>1799</v>
       </c>
-      <c r="D97" t="s">
+      <c r="G102" t="s">
         <v>1840</v>
       </c>
     </row>
-    <row r="98" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C98" t="s">
+    <row r="103" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B103" t="s">
+        <v>847</v>
+      </c>
+      <c r="C103" s="15" t="s">
+        <v>847</v>
+      </c>
+      <c r="D103" t="s">
+        <v>512</v>
+      </c>
+      <c r="E103" t="s">
+        <v>638</v>
+      </c>
+      <c r="F103" t="s">
         <v>1801</v>
       </c>
-      <c r="D98" t="s">
+      <c r="G103" t="s">
         <v>1841</v>
       </c>
     </row>
-    <row r="99" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C99" t="s">
+    <row r="104" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B104" t="s">
+        <v>847</v>
+      </c>
+      <c r="C104" s="15" t="s">
+        <v>847</v>
+      </c>
+      <c r="D104" t="s">
+        <v>517</v>
+      </c>
+      <c r="E104" t="s">
+        <v>634</v>
+      </c>
+      <c r="F104" t="s">
         <v>1803</v>
       </c>
-      <c r="D99" t="s">
+      <c r="G104" t="s">
         <v>1842</v>
       </c>
     </row>
-    <row r="100" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C100" t="s">
+    <row r="105" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B105" t="s">
+        <v>847</v>
+      </c>
+      <c r="C105" s="15" t="s">
+        <v>847</v>
+      </c>
+      <c r="D105" t="s">
+        <v>522</v>
+      </c>
+      <c r="E105" t="s">
+        <v>634</v>
+      </c>
+      <c r="F105" t="s">
         <v>1748</v>
       </c>
-      <c r="D100" t="s">
+      <c r="G105" t="s">
         <v>1843</v>
       </c>
     </row>
-    <row r="101" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C101" t="s">
+    <row r="106" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B106" t="s">
+        <v>847</v>
+      </c>
+      <c r="C106" s="15" t="s">
+        <v>847</v>
+      </c>
+      <c r="D106" t="s">
+        <v>527</v>
+      </c>
+      <c r="E106" t="s">
+        <v>2308</v>
+      </c>
+      <c r="F106" t="s">
         <v>1844</v>
       </c>
-      <c r="D101" t="s">
+      <c r="G106" t="s">
         <v>1845</v>
       </c>
     </row>
-    <row r="102" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B102" t="s">
+    <row r="107" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B107" t="s">
         <v>863</v>
       </c>
-      <c r="C102" t="s">
+      <c r="C107" s="15" t="s">
+        <v>863</v>
+      </c>
+      <c r="D107" t="s">
+        <v>958</v>
+      </c>
+      <c r="E107" t="s">
+        <v>2164</v>
+      </c>
+      <c r="F107" t="s">
         <v>1691</v>
       </c>
-      <c r="D102" t="s">
+      <c r="G107" t="s">
         <v>1846</v>
       </c>
     </row>
-    <row r="103" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C103" t="s">
+    <row r="108" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B108" t="s">
+        <v>863</v>
+      </c>
+      <c r="C108" s="15" t="s">
+        <v>863</v>
+      </c>
+      <c r="D108" t="s">
+        <v>512</v>
+      </c>
+      <c r="E108" t="s">
+        <v>868</v>
+      </c>
+      <c r="F108" t="s">
         <v>1847</v>
       </c>
-      <c r="D103" t="s">
+      <c r="G108" t="s">
         <v>1848</v>
       </c>
     </row>
-    <row r="104" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C104" t="s">
+    <row r="109" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B109" t="s">
+        <v>863</v>
+      </c>
+      <c r="C109" s="15" t="s">
+        <v>863</v>
+      </c>
+      <c r="D109" t="s">
+        <v>517</v>
+      </c>
+      <c r="E109" t="s">
+        <v>872</v>
+      </c>
+      <c r="F109" t="s">
         <v>1849</v>
       </c>
-      <c r="D104" t="s">
+      <c r="G109" t="s">
         <v>1850</v>
       </c>
     </row>
-    <row r="105" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C105" t="s">
+    <row r="110" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B110" t="s">
+        <v>863</v>
+      </c>
+      <c r="C110" s="15" t="s">
+        <v>863</v>
+      </c>
+      <c r="D110" t="s">
+        <v>522</v>
+      </c>
+      <c r="E110" t="s">
+        <v>875</v>
+      </c>
+      <c r="F110" t="s">
         <v>1851</v>
       </c>
-      <c r="D105" t="s">
+      <c r="G110" t="s">
         <v>1852</v>
       </c>
     </row>
-    <row r="106" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C106" t="s">
+    <row r="111" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B111" t="s">
+        <v>863</v>
+      </c>
+      <c r="C111" s="15" t="s">
+        <v>863</v>
+      </c>
+      <c r="D111" t="s">
+        <v>527</v>
+      </c>
+      <c r="E111" t="s">
+        <v>2177</v>
+      </c>
+      <c r="F111" t="s">
         <v>1853</v>
       </c>
-      <c r="D106" t="s">
+      <c r="G111" t="s">
         <v>1854</v>
       </c>
     </row>
-    <row r="107" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B107" t="s">
+    <row r="112" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B112" t="s">
         <v>883</v>
       </c>
-      <c r="C107" t="s">
+      <c r="C112" s="15" t="s">
+        <v>2312</v>
+      </c>
+      <c r="D112" t="s">
+        <v>958</v>
+      </c>
+      <c r="E112" t="s">
+        <v>2313</v>
+      </c>
+      <c r="F112" t="s">
         <v>1808</v>
       </c>
-      <c r="D107" t="s">
+      <c r="G112" t="s">
         <v>1855</v>
       </c>
     </row>
-    <row r="108" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C108" t="s">
+    <row r="113" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B113" t="s">
+        <v>883</v>
+      </c>
+      <c r="C113" s="15" t="s">
+        <v>2312</v>
+      </c>
+      <c r="D113" t="s">
+        <v>507</v>
+      </c>
+      <c r="E113" t="s">
+        <v>888</v>
+      </c>
+      <c r="F113" t="s">
         <v>1810</v>
       </c>
-      <c r="D108" t="s">
+      <c r="G113" t="s">
         <v>1856</v>
       </c>
     </row>
-    <row r="109" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C109" t="s">
+    <row r="114" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B114" t="s">
+        <v>883</v>
+      </c>
+      <c r="C114" s="15" t="s">
+        <v>2312</v>
+      </c>
+      <c r="D114" t="s">
+        <v>512</v>
+      </c>
+      <c r="E114" t="s">
+        <v>892</v>
+      </c>
+      <c r="F114" t="s">
         <v>1812</v>
       </c>
-      <c r="D109" t="s">
+      <c r="G114" t="s">
         <v>1857</v>
       </c>
     </row>
-    <row r="110" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C110" t="s">
+    <row r="115" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B115" t="s">
+        <v>883</v>
+      </c>
+      <c r="C115" s="15" t="s">
+        <v>2312</v>
+      </c>
+      <c r="D115" t="s">
+        <v>517</v>
+      </c>
+      <c r="E115" t="s">
+        <v>630</v>
+      </c>
+      <c r="F115" t="s">
         <v>1748</v>
       </c>
-      <c r="D110" t="s">
+      <c r="G115" t="s">
         <v>1858</v>
       </c>
     </row>
-    <row r="111" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C111" t="s">
+    <row r="116" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B116" t="s">
+        <v>883</v>
+      </c>
+      <c r="C116" s="15" t="s">
+        <v>2312</v>
+      </c>
+      <c r="D116" t="s">
+        <v>527</v>
+      </c>
+      <c r="E116" t="s">
+        <v>2033</v>
+      </c>
+      <c r="F116" t="s">
         <v>1806</v>
       </c>
-      <c r="D111" t="s">
+      <c r="G116" t="s">
         <v>1859</v>
       </c>
     </row>
-    <row r="112" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B112" t="s">
+    <row r="117" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B117" t="s">
         <v>129</v>
       </c>
-      <c r="C112" t="s">
+      <c r="C117" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="D117" t="s">
+        <v>958</v>
+      </c>
+      <c r="E117" t="s">
+        <v>1902</v>
+      </c>
+      <c r="F117" t="s">
         <v>1691</v>
       </c>
-      <c r="D112" t="s">
+      <c r="G117" t="s">
         <v>1860</v>
       </c>
     </row>
-    <row r="113" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C113" t="s">
+    <row r="118" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B118" t="s">
+        <v>129</v>
+      </c>
+      <c r="C118" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="D118" t="s">
+        <v>507</v>
+      </c>
+      <c r="E118" t="s">
+        <v>1423</v>
+      </c>
+      <c r="F118" t="s">
         <v>1780</v>
       </c>
-      <c r="D113" t="s">
+      <c r="G118" t="s">
         <v>1861</v>
       </c>
     </row>
-    <row r="114" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C114" t="s">
+    <row r="119" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B119" t="s">
+        <v>129</v>
+      </c>
+      <c r="C119" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="D119" t="s">
+        <v>517</v>
+      </c>
+      <c r="E119" t="s">
+        <v>1433</v>
+      </c>
+      <c r="F119" t="s">
         <v>1862</v>
       </c>
-      <c r="D114" t="s">
+      <c r="G119" t="s">
         <v>1863</v>
       </c>
     </row>
-    <row r="115" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C115" t="s">
+    <row r="120" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B120" t="s">
+        <v>129</v>
+      </c>
+      <c r="C120" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="D120" t="s">
+        <v>522</v>
+      </c>
+      <c r="E120" t="s">
+        <v>1471</v>
+      </c>
+      <c r="F120" t="s">
         <v>1864</v>
       </c>
-      <c r="D115" t="s">
+      <c r="G120" t="s">
         <v>1865</v>
       </c>
     </row>
-    <row r="116" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C116" t="s">
+    <row r="121" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B121" t="s">
+        <v>129</v>
+      </c>
+      <c r="C121" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="D121" t="s">
+        <v>527</v>
+      </c>
+      <c r="E121" t="s">
+        <v>2193</v>
+      </c>
+      <c r="F121" t="s">
         <v>1866</v>
       </c>
-      <c r="D116" t="s">
+      <c r="G121" t="s">
         <v>1867</v>
       </c>
     </row>
-    <row r="117" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B117" t="s">
+    <row r="122" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B122" t="s">
         <v>135</v>
       </c>
-      <c r="C117" t="s">
+      <c r="C122" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="D122" t="s">
+        <v>958</v>
+      </c>
+      <c r="E122" t="s">
+        <v>1902</v>
+      </c>
+      <c r="F122" t="s">
         <v>1691</v>
       </c>
-      <c r="D117" t="s">
+      <c r="G122" t="s">
         <v>1868</v>
       </c>
     </row>
-    <row r="118" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C118" t="s">
+    <row r="123" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B123" t="s">
+        <v>135</v>
+      </c>
+      <c r="C123" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="D123" t="s">
+        <v>507</v>
+      </c>
+      <c r="E123" t="s">
+        <v>1347</v>
+      </c>
+      <c r="F123" t="s">
         <v>1762</v>
       </c>
-      <c r="D118" t="s">
+      <c r="G123" t="s">
         <v>1869</v>
       </c>
     </row>
-    <row r="119" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C119" t="s">
+    <row r="124" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B124" t="s">
+        <v>135</v>
+      </c>
+      <c r="C124" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="D124" t="s">
+        <v>517</v>
+      </c>
+      <c r="E124" t="s">
+        <v>1471</v>
+      </c>
+      <c r="F124" t="s">
         <v>1764</v>
       </c>
-      <c r="D119" t="s">
+      <c r="G124" t="s">
         <v>1870</v>
       </c>
     </row>
-    <row r="120" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C120" t="s">
+    <row r="125" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B125" t="s">
+        <v>135</v>
+      </c>
+      <c r="C125" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="D125" t="s">
+        <v>522</v>
+      </c>
+      <c r="E125" t="s">
+        <v>1491</v>
+      </c>
+      <c r="F125" t="s">
         <v>1766</v>
       </c>
-      <c r="D120" t="s">
+      <c r="G125" t="s">
         <v>1871</v>
       </c>
     </row>
-    <row r="121" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C121" t="s">
+    <row r="126" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B126" t="s">
+        <v>135</v>
+      </c>
+      <c r="C126" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="D126" t="s">
+        <v>527</v>
+      </c>
+      <c r="E126" t="s">
+        <v>1915</v>
+      </c>
+      <c r="F126" t="s">
         <v>1768</v>
       </c>
-      <c r="D121" t="s">
+      <c r="G126" t="s">
         <v>1872</v>
       </c>
     </row>
-    <row r="122" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B122" t="s">
+    <row r="127" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B127" t="s">
         <v>53</v>
       </c>
-      <c r="C122" t="s">
+      <c r="C127" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D127" t="s">
+        <v>958</v>
+      </c>
+      <c r="E127" t="s">
+        <v>1902</v>
+      </c>
+      <c r="F127" t="s">
         <v>1873</v>
       </c>
-      <c r="D122" t="s">
+      <c r="G127" t="s">
         <v>1874</v>
       </c>
     </row>
-    <row r="123" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C123" t="s">
+    <row r="128" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B128" t="s">
+        <v>53</v>
+      </c>
+      <c r="C128" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D128" t="s">
+        <v>507</v>
+      </c>
+      <c r="E128" t="s">
+        <v>741</v>
+      </c>
+      <c r="F128" t="s">
         <v>1875</v>
       </c>
-      <c r="D123" t="s">
+      <c r="G128" t="s">
         <v>1876</v>
       </c>
     </row>
-    <row r="124" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C124" t="s">
+    <row r="129" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B129" t="s">
+        <v>53</v>
+      </c>
+      <c r="C129" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D129" t="s">
+        <v>517</v>
+      </c>
+      <c r="E129" t="s">
+        <v>710</v>
+      </c>
+      <c r="F129" t="s">
         <v>1877</v>
       </c>
-      <c r="D124" t="s">
+      <c r="G129" t="s">
         <v>1878</v>
       </c>
     </row>
-    <row r="125" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C125" t="s">
+    <row r="130" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B130" t="s">
+        <v>53</v>
+      </c>
+      <c r="C130" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D130" t="s">
+        <v>522</v>
+      </c>
+      <c r="E130" t="s">
+        <v>690</v>
+      </c>
+      <c r="F130" t="s">
         <v>1879</v>
       </c>
-      <c r="D125" t="s">
+      <c r="G130" t="s">
         <v>1880</v>
       </c>
     </row>
-    <row r="126" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C126" t="s">
+    <row r="131" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B131" t="s">
+        <v>53</v>
+      </c>
+      <c r="C131" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D131" t="s">
+        <v>527</v>
+      </c>
+      <c r="E131" t="s">
+        <v>1915</v>
+      </c>
+      <c r="F131" t="s">
         <v>1866</v>
       </c>
-      <c r="D126" t="s">
+      <c r="G131" t="s">
         <v>1881</v>
       </c>
     </row>
-    <row r="127" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B127" t="s">
+    <row r="132" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B132" t="s">
         <v>141</v>
       </c>
-      <c r="C127" t="s">
+      <c r="C132" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="D132" t="s">
+        <v>958</v>
+      </c>
+      <c r="E132" t="s">
+        <v>1902</v>
+      </c>
+      <c r="F132" t="s">
         <v>1691</v>
       </c>
-      <c r="D127" t="s">
+      <c r="G132" t="s">
         <v>1882</v>
       </c>
     </row>
-    <row r="128" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C128" t="s">
+    <row r="133" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B133" t="s">
+        <v>141</v>
+      </c>
+      <c r="C133" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="D133" t="s">
+        <v>507</v>
+      </c>
+      <c r="E133" t="s">
+        <v>1423</v>
+      </c>
+      <c r="F133" t="s">
         <v>1762</v>
       </c>
-      <c r="D128" t="s">
+      <c r="G133" t="s">
         <v>1883</v>
       </c>
     </row>
-    <row r="129" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C129" t="s">
+    <row r="134" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B134" t="s">
+        <v>141</v>
+      </c>
+      <c r="C134" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="D134" t="s">
+        <v>517</v>
+      </c>
+      <c r="E134" t="s">
+        <v>1433</v>
+      </c>
+      <c r="F134" t="s">
         <v>1884</v>
       </c>
-      <c r="D129" t="s">
+      <c r="G134" t="s">
         <v>1885</v>
       </c>
     </row>
-    <row r="130" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C130" t="s">
+    <row r="135" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B135" t="s">
+        <v>141</v>
+      </c>
+      <c r="C135" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="D135" t="s">
+        <v>522</v>
+      </c>
+      <c r="E135" t="s">
+        <v>1471</v>
+      </c>
+      <c r="F135" t="s">
         <v>1886</v>
       </c>
-      <c r="D130" t="s">
+      <c r="G135" t="s">
         <v>1887</v>
       </c>
     </row>
-    <row r="131" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C131" t="s">
+    <row r="136" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B136" t="s">
+        <v>141</v>
+      </c>
+      <c r="C136" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="D136" t="s">
+        <v>527</v>
+      </c>
+      <c r="E136" t="s">
+        <v>2193</v>
+      </c>
+      <c r="F136" t="s">
         <v>1786</v>
       </c>
-      <c r="D131" t="s">
+      <c r="G136" t="s">
         <v>1888</v>
       </c>
     </row>
-    <row r="132" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B132" t="s">
+    <row r="137" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B137" t="s">
         <v>146</v>
       </c>
-      <c r="C132" t="s">
+      <c r="C137" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="D137" t="s">
+        <v>958</v>
+      </c>
+      <c r="E137" t="s">
+        <v>667</v>
+      </c>
+      <c r="F137" t="s">
         <v>1691</v>
       </c>
-      <c r="D132" t="s">
+      <c r="G137" t="s">
         <v>1889</v>
       </c>
     </row>
-    <row r="133" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C133" t="s">
+    <row r="138" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B138" t="s">
+        <v>146</v>
+      </c>
+      <c r="C138" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="D138" t="s">
+        <v>507</v>
+      </c>
+      <c r="E138" t="s">
+        <v>946</v>
+      </c>
+      <c r="F138" t="s">
         <v>1744</v>
       </c>
-      <c r="D133" t="s">
+      <c r="G138" t="s">
         <v>1890</v>
       </c>
     </row>
-    <row r="134" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C134" t="s">
+    <row r="139" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B139" t="s">
+        <v>146</v>
+      </c>
+      <c r="C139" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="D139" t="s">
+        <v>517</v>
+      </c>
+      <c r="E139" t="s">
+        <v>948</v>
+      </c>
+      <c r="F139" t="s">
         <v>1746</v>
       </c>
-      <c r="D134" t="s">
+      <c r="G139" t="s">
         <v>1891</v>
       </c>
     </row>
-    <row r="135" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C135" t="s">
+    <row r="140" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B140" t="s">
+        <v>146</v>
+      </c>
+      <c r="C140" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="D140" t="s">
+        <v>522</v>
+      </c>
+      <c r="E140" t="s">
+        <v>951</v>
+      </c>
+      <c r="F140" t="s">
         <v>1748</v>
       </c>
-      <c r="D135" t="s">
+      <c r="G140" t="s">
         <v>1892</v>
       </c>
     </row>
-    <row r="136" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C136" t="s">
+    <row r="141" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B141" t="s">
+        <v>146</v>
+      </c>
+      <c r="C141" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="D141" t="s">
+        <v>527</v>
+      </c>
+      <c r="E141" t="s">
+        <v>2239</v>
+      </c>
+      <c r="F141" t="s">
         <v>1750</v>
       </c>
-      <c r="D136" t="s">
+      <c r="G141" t="s">
         <v>1893</v>
       </c>
     </row>
-    <row r="137" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B137" t="s">
+    <row r="142" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B142" t="s">
         <v>24</v>
       </c>
-      <c r="C137" t="s">
+      <c r="C142" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D142" t="s">
+        <v>958</v>
+      </c>
+      <c r="E142" t="s">
+        <v>2164</v>
+      </c>
+      <c r="F142" t="s">
         <v>1691</v>
       </c>
-      <c r="D137" t="s">
+      <c r="G142" t="s">
         <v>1894</v>
       </c>
     </row>
-    <row r="138" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C138" t="s">
+    <row r="143" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B143" t="s">
+        <v>24</v>
+      </c>
+      <c r="C143" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D143" t="s">
+        <v>512</v>
+      </c>
+      <c r="E143" t="s">
+        <v>868</v>
+      </c>
+      <c r="F143" t="s">
         <v>1847</v>
       </c>
-      <c r="D138" t="s">
+      <c r="G143" t="s">
         <v>1895</v>
       </c>
     </row>
-    <row r="139" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C139" t="s">
+    <row r="144" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B144" t="s">
+        <v>24</v>
+      </c>
+      <c r="C144" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D144" t="s">
+        <v>517</v>
+      </c>
+      <c r="E144" t="s">
+        <v>872</v>
+      </c>
+      <c r="F144" t="s">
         <v>1849</v>
       </c>
-      <c r="D139" t="s">
+      <c r="G144" t="s">
         <v>1896</v>
       </c>
     </row>
-    <row r="140" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C140" t="s">
+    <row r="145" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B145" t="s">
+        <v>24</v>
+      </c>
+      <c r="C145" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D145" t="s">
+        <v>522</v>
+      </c>
+      <c r="E145" t="s">
+        <v>875</v>
+      </c>
+      <c r="F145" t="s">
         <v>1851</v>
       </c>
-      <c r="D140" t="s">
+      <c r="G145" t="s">
         <v>1897</v>
       </c>
     </row>
-    <row r="141" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C141" t="s">
+    <row r="146" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B146" t="s">
+        <v>24</v>
+      </c>
+      <c r="C146" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D146" t="s">
+        <v>527</v>
+      </c>
+      <c r="E146" t="s">
+        <v>2177</v>
+      </c>
+      <c r="F146" t="s">
         <v>1853</v>
       </c>
-      <c r="D141" t="s">
+      <c r="G146" t="s">
         <v>1898</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:D141" xr:uid="{88565B4B-D710-4A69-A511-1E4E3ACD2D53}"/>
+  <autoFilter ref="B1:G146" xr:uid="{88565B4B-D710-4A69-A511-1E4E3ACD2D53}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Dívida Líquida/EBIT"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
@@ -18519,21 +19972,23 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1ACF17C-8AD9-46C4-A02A-6070452A9A42}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:G141"/>
+  <dimension ref="A1:H141"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31:A35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B132" sqref="B132:D136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="28.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.6640625" customWidth="1"/>
     <col min="3" max="3" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="53.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="57.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.77734375" customWidth="1"/>
+    <col min="6" max="6" width="53.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="57.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>2507</v>
       </c>
@@ -18547,16 +20002,22 @@
         <v>505</v>
       </c>
       <c r="E1" s="14" t="s">
+        <v>2532</v>
+      </c>
+      <c r="F1" s="14" t="s">
         <v>252</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="G1" s="14" t="s">
         <v>506</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="H1" s="14" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>2531</v>
+      </c>
       <c r="B2" s="15" t="s">
         <v>53</v>
       </c>
@@ -18567,16 +20028,22 @@
         <v>1902</v>
       </c>
       <c r="E2" t="s">
-        <v>1903</v>
+        <v>1873</v>
       </c>
       <c r="F2" t="s">
+        <v>1874</v>
+      </c>
+      <c r="G2" t="s">
         <v>1904</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>1905</v>
       </c>
     </row>
-    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>2531</v>
+      </c>
       <c r="B3" s="15" t="s">
         <v>53</v>
       </c>
@@ -18587,16 +20054,22 @@
         <v>741</v>
       </c>
       <c r="E3" t="s">
-        <v>1906</v>
+        <v>1875</v>
       </c>
       <c r="F3" t="s">
+        <v>1876</v>
+      </c>
+      <c r="G3" t="s">
         <v>1907</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>1908</v>
       </c>
     </row>
-    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>2531</v>
+      </c>
       <c r="B4" s="15" t="s">
         <v>53</v>
       </c>
@@ -18607,16 +20080,22 @@
         <v>710</v>
       </c>
       <c r="E4" t="s">
-        <v>1909</v>
+        <v>1877</v>
       </c>
       <c r="F4" t="s">
+        <v>1878</v>
+      </c>
+      <c r="G4" t="s">
         <v>1910</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>1911</v>
       </c>
     </row>
-    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>2531</v>
+      </c>
       <c r="B5" s="15" t="s">
         <v>53</v>
       </c>
@@ -18627,16 +20106,22 @@
         <v>690</v>
       </c>
       <c r="E5" t="s">
-        <v>1912</v>
+        <v>1879</v>
       </c>
       <c r="F5" t="s">
+        <v>1880</v>
+      </c>
+      <c r="G5" t="s">
         <v>1913</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>1914</v>
       </c>
     </row>
-    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>2531</v>
+      </c>
       <c r="B6" s="15" t="s">
         <v>53</v>
       </c>
@@ -18647,16 +20132,19 @@
         <v>1915</v>
       </c>
       <c r="E6" t="s">
-        <v>1916</v>
+        <v>1866</v>
       </c>
       <c r="F6" t="s">
+        <v>1881</v>
+      </c>
+      <c r="G6" t="s">
         <v>1917</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>1918</v>
       </c>
     </row>
-    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>2529</v>
       </c>
@@ -18669,17 +20157,17 @@
       <c r="D7" t="s">
         <v>1919</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>1920</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>1921</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>1922</v>
       </c>
     </row>
-    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>2529</v>
       </c>
@@ -18692,17 +20180,17 @@
       <c r="D8" t="s">
         <v>977</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>1665</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>1924</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>1925</v>
       </c>
     </row>
-    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>2529</v>
       </c>
@@ -18715,17 +20203,17 @@
       <c r="D9" t="s">
         <v>513</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>1667</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>1927</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>1928</v>
       </c>
     </row>
-    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>2529</v>
       </c>
@@ -18738,17 +20226,17 @@
       <c r="D10" t="s">
         <v>518</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>1669</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>1930</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>1931</v>
       </c>
     </row>
-    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>2529</v>
       </c>
@@ -18761,17 +20249,17 @@
       <c r="D11" t="s">
         <v>523</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>2530</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>1933</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>1934</v>
       </c>
     </row>
-    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>2529</v>
       </c>
@@ -18784,17 +20272,17 @@
       <c r="D12" t="s">
         <v>528</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>2528</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>1936</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>1937</v>
       </c>
     </row>
-    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>2531</v>
       </c>
@@ -18807,17 +20295,17 @@
       <c r="D13" t="s">
         <v>1938</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>1939</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>1940</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>1941</v>
       </c>
     </row>
-    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>2531</v>
       </c>
@@ -18830,17 +20318,17 @@
       <c r="D14" t="s">
         <v>1942</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>1675</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>1944</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>1945</v>
       </c>
     </row>
-    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>2531</v>
       </c>
@@ -18853,17 +20341,17 @@
       <c r="D15" t="s">
         <v>536</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>1677</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>1947</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>1948</v>
       </c>
     </row>
-    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>2531</v>
       </c>
@@ -18876,17 +20364,17 @@
       <c r="D16" t="s">
         <v>540</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>1679</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>1950</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>1951</v>
       </c>
     </row>
-    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>2531</v>
       </c>
@@ -18899,17 +20387,17 @@
       <c r="D17" t="s">
         <v>544</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>1681</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>1953</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>1954</v>
       </c>
     </row>
-    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>2531</v>
       </c>
@@ -18922,17 +20410,17 @@
       <c r="D18" t="s">
         <v>528</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>1682</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>1956</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>1957</v>
       </c>
     </row>
-    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>2531</v>
       </c>
@@ -18945,17 +20433,17 @@
       <c r="D19" t="s">
         <v>1958</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>1959</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>1960</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>1961</v>
       </c>
     </row>
-    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>2531</v>
       </c>
@@ -18968,17 +20456,17 @@
       <c r="D20" t="s">
         <v>634</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>1684</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>1963</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>1964</v>
       </c>
     </row>
-    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>2531</v>
       </c>
@@ -18991,17 +20479,17 @@
       <c r="D21" t="s">
         <v>1965</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>1686</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>1967</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>1968</v>
       </c>
     </row>
-    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>2531</v>
       </c>
@@ -19014,17 +20502,17 @@
       <c r="D22" t="s">
         <v>1969</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>1688</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>1971</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
         <v>1972</v>
       </c>
     </row>
-    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>2531</v>
       </c>
@@ -19037,17 +20525,17 @@
       <c r="D23" t="s">
         <v>1973</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>1690</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>1975</v>
       </c>
-      <c r="G23" t="s">
+      <c r="H23" t="s">
         <v>1976</v>
       </c>
     </row>
-    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>2531</v>
       </c>
@@ -19060,17 +20548,18 @@
       <c r="D24" s="21" t="s">
         <v>528</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" s="21"/>
+      <c r="F24" t="s">
         <v>1977</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>1978</v>
       </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
         <v>1979</v>
       </c>
     </row>
-    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>2531</v>
       </c>
@@ -19083,17 +20572,17 @@
       <c r="D25">
         <v>0</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>1694</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>1981</v>
       </c>
-      <c r="G25" t="s">
+      <c r="H25" t="s">
         <v>1982</v>
       </c>
     </row>
-    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>2531</v>
       </c>
@@ -19106,17 +20595,17 @@
       <c r="D26" t="s">
         <v>1983</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>1696</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>1985</v>
       </c>
-      <c r="G26" t="s">
+      <c r="H26" t="s">
         <v>1986</v>
       </c>
     </row>
-    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>2531</v>
       </c>
@@ -19129,17 +20618,17 @@
       <c r="D27" t="s">
         <v>1154</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>1696</v>
       </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
         <v>1988</v>
       </c>
-      <c r="G27" t="s">
+      <c r="H27" t="s">
         <v>1989</v>
       </c>
     </row>
-    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>2531</v>
       </c>
@@ -19152,17 +20641,17 @@
       <c r="D28" t="s">
         <v>577</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
         <v>1698</v>
       </c>
-      <c r="F28" t="s">
+      <c r="G28" t="s">
         <v>1991</v>
       </c>
-      <c r="G28" t="s">
+      <c r="H28" t="s">
         <v>1992</v>
       </c>
     </row>
-    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>2531</v>
       </c>
@@ -19175,17 +20664,17 @@
       <c r="D29" t="s">
         <v>581</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>1700</v>
       </c>
-      <c r="F29" t="s">
+      <c r="G29" t="s">
         <v>1994</v>
       </c>
-      <c r="G29" t="s">
+      <c r="H29" t="s">
         <v>1995</v>
       </c>
     </row>
-    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>2531</v>
       </c>
@@ -19198,17 +20687,17 @@
       <c r="D30" t="s">
         <v>585</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>1996</v>
       </c>
-      <c r="F30" t="s">
+      <c r="G30" t="s">
         <v>1997</v>
       </c>
-      <c r="G30" t="s">
+      <c r="H30" t="s">
         <v>1998</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>2531</v>
       </c>
@@ -19221,17 +20710,17 @@
       <c r="D31" t="s">
         <v>1999</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>1704</v>
       </c>
-      <c r="F31" t="s">
+      <c r="G31" t="s">
         <v>2001</v>
       </c>
-      <c r="G31" t="s">
+      <c r="H31" t="s">
         <v>2002</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>2531</v>
       </c>
@@ -19244,17 +20733,17 @@
       <c r="D32" t="s">
         <v>593</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>1706</v>
       </c>
-      <c r="F32" t="s">
+      <c r="G32" t="s">
         <v>2004</v>
       </c>
-      <c r="G32" t="s">
+      <c r="H32" t="s">
         <v>2005</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>2531</v>
       </c>
@@ -19267,17 +20756,17 @@
       <c r="D33" t="s">
         <v>597</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>1708</v>
       </c>
-      <c r="F33" t="s">
+      <c r="G33" t="s">
         <v>2007</v>
       </c>
-      <c r="G33" t="s">
+      <c r="H33" t="s">
         <v>2008</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>2531</v>
       </c>
@@ -19290,17 +20779,17 @@
       <c r="D34" t="s">
         <v>601</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>1710</v>
       </c>
-      <c r="F34" t="s">
+      <c r="G34" t="s">
         <v>2010</v>
       </c>
-      <c r="G34" t="s">
+      <c r="H34" t="s">
         <v>2011</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>2531</v>
       </c>
@@ -19313,17 +20802,20 @@
       <c r="D35" t="s">
         <v>2012</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>1712</v>
       </c>
-      <c r="F35" t="s">
+      <c r="G35" t="s">
         <v>2014</v>
       </c>
-      <c r="G35" t="s">
+      <c r="H35" t="s">
         <v>2015</v>
       </c>
     </row>
-    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>2529</v>
+      </c>
       <c r="B36" s="15" t="s">
         <v>93</v>
       </c>
@@ -19333,17 +20825,20 @@
       <c r="D36" t="s">
         <v>2016</v>
       </c>
-      <c r="E36" t="s">
-        <v>2017</v>
-      </c>
       <c r="F36" t="s">
+        <v>1714</v>
+      </c>
+      <c r="G36" t="s">
         <v>2018</v>
       </c>
-      <c r="G36" t="s">
+      <c r="H36" t="s">
         <v>2019</v>
       </c>
     </row>
-    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>2529</v>
+      </c>
       <c r="B37" s="15" t="s">
         <v>93</v>
       </c>
@@ -19353,17 +20848,20 @@
       <c r="D37" t="s">
         <v>597</v>
       </c>
-      <c r="E37" t="s">
-        <v>2020</v>
-      </c>
       <c r="F37" t="s">
+        <v>1716</v>
+      </c>
+      <c r="G37" t="s">
         <v>2021</v>
       </c>
-      <c r="G37" t="s">
+      <c r="H37" t="s">
         <v>2022</v>
       </c>
     </row>
-    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>2529</v>
+      </c>
       <c r="B38" s="15" t="s">
         <v>93</v>
       </c>
@@ -19373,17 +20871,20 @@
       <c r="D38" t="s">
         <v>615</v>
       </c>
-      <c r="E38" t="s">
-        <v>2023</v>
-      </c>
       <c r="F38" t="s">
+        <v>1718</v>
+      </c>
+      <c r="G38" t="s">
         <v>2024</v>
       </c>
-      <c r="G38" t="s">
+      <c r="H38" t="s">
         <v>2025</v>
       </c>
     </row>
-    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>2529</v>
+      </c>
       <c r="B39" s="15" t="s">
         <v>93</v>
       </c>
@@ -19393,17 +20894,20 @@
       <c r="D39" t="s">
         <v>618</v>
       </c>
-      <c r="E39" t="s">
-        <v>2026</v>
-      </c>
       <c r="F39" t="s">
+        <v>1720</v>
+      </c>
+      <c r="G39" t="s">
         <v>2027</v>
       </c>
-      <c r="G39" t="s">
+      <c r="H39" t="s">
         <v>2028</v>
       </c>
     </row>
-    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>2529</v>
+      </c>
       <c r="B40" s="15" t="s">
         <v>93</v>
       </c>
@@ -19413,17 +20917,20 @@
       <c r="D40" t="s">
         <v>2029</v>
       </c>
-      <c r="E40" t="s">
-        <v>2030</v>
-      </c>
       <c r="F40" t="s">
+        <v>1722</v>
+      </c>
+      <c r="G40" t="s">
         <v>2031</v>
       </c>
-      <c r="G40" t="s">
+      <c r="H40" t="s">
         <v>2032</v>
       </c>
     </row>
-    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>2531</v>
+      </c>
       <c r="B41" s="15" t="s">
         <v>38</v>
       </c>
@@ -19433,17 +20940,20 @@
       <c r="D41" t="s">
         <v>2033</v>
       </c>
-      <c r="E41" t="s">
-        <v>2034</v>
-      </c>
       <c r="F41" t="s">
+        <v>1724</v>
+      </c>
+      <c r="G41" t="s">
         <v>2035</v>
       </c>
-      <c r="G41" t="s">
+      <c r="H41" t="s">
         <v>2036</v>
       </c>
     </row>
-    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>2531</v>
+      </c>
       <c r="B42" s="15" t="s">
         <v>38</v>
       </c>
@@ -19453,17 +20963,20 @@
       <c r="D42" t="s">
         <v>630</v>
       </c>
-      <c r="E42" t="s">
-        <v>2037</v>
-      </c>
       <c r="F42" t="s">
+        <v>1726</v>
+      </c>
+      <c r="G42" t="s">
         <v>2038</v>
       </c>
-      <c r="G42" t="s">
+      <c r="H42" t="s">
         <v>2039</v>
       </c>
     </row>
-    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>2531</v>
+      </c>
       <c r="B43" s="15" t="s">
         <v>38</v>
       </c>
@@ -19473,17 +20986,20 @@
       <c r="D43" t="s">
         <v>634</v>
       </c>
-      <c r="E43" t="s">
-        <v>2040</v>
-      </c>
       <c r="F43" t="s">
+        <v>1728</v>
+      </c>
+      <c r="G43" t="s">
         <v>2041</v>
       </c>
-      <c r="G43" t="s">
+      <c r="H43" t="s">
         <v>2042</v>
       </c>
     </row>
-    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>2531</v>
+      </c>
       <c r="B44" s="15" t="s">
         <v>38</v>
       </c>
@@ -19493,17 +21009,20 @@
       <c r="D44" t="s">
         <v>638</v>
       </c>
-      <c r="E44" t="s">
-        <v>2043</v>
-      </c>
       <c r="F44" t="s">
+        <v>1730</v>
+      </c>
+      <c r="G44" t="s">
         <v>2044</v>
       </c>
-      <c r="G44" t="s">
+      <c r="H44" t="s">
         <v>2045</v>
       </c>
     </row>
-    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>2531</v>
+      </c>
       <c r="B45" s="15" t="s">
         <v>38</v>
       </c>
@@ -19513,17 +21032,20 @@
       <c r="D45" t="s">
         <v>642</v>
       </c>
-      <c r="E45" t="s">
-        <v>2046</v>
-      </c>
       <c r="F45" t="s">
+        <v>1732</v>
+      </c>
+      <c r="G45" t="s">
         <v>2047</v>
       </c>
-      <c r="G45" t="s">
+      <c r="H45" t="s">
         <v>2048</v>
       </c>
     </row>
-    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>2531</v>
+      </c>
       <c r="B46" s="15" t="s">
         <v>360</v>
       </c>
@@ -19533,17 +21055,20 @@
       <c r="D46" t="s">
         <v>2049</v>
       </c>
-      <c r="E46" t="s">
-        <v>2050</v>
-      </c>
       <c r="F46" t="s">
+        <v>1734</v>
+      </c>
+      <c r="G46" t="s">
         <v>2051</v>
       </c>
-      <c r="G46" t="s">
+      <c r="H46" t="s">
         <v>2052</v>
       </c>
     </row>
-    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>2531</v>
+      </c>
       <c r="B47" s="15" t="s">
         <v>360</v>
       </c>
@@ -19553,17 +21078,20 @@
       <c r="D47" t="s">
         <v>650</v>
       </c>
-      <c r="E47" t="s">
-        <v>2053</v>
-      </c>
       <c r="F47" t="s">
+        <v>1736</v>
+      </c>
+      <c r="G47" t="s">
         <v>2054</v>
       </c>
-      <c r="G47" t="s">
+      <c r="H47" t="s">
         <v>2055</v>
       </c>
     </row>
-    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>2531</v>
+      </c>
       <c r="B48" s="15" t="s">
         <v>360</v>
       </c>
@@ -19573,17 +21101,20 @@
       <c r="D48" t="s">
         <v>654</v>
       </c>
-      <c r="E48" t="s">
-        <v>2056</v>
-      </c>
       <c r="F48" t="s">
+        <v>1738</v>
+      </c>
+      <c r="G48" t="s">
         <v>2057</v>
       </c>
-      <c r="G48" t="s">
+      <c r="H48" t="s">
         <v>2058</v>
       </c>
     </row>
-    <row r="49" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>2531</v>
+      </c>
       <c r="B49" s="15" t="s">
         <v>360</v>
       </c>
@@ -19593,17 +21124,20 @@
       <c r="D49" t="s">
         <v>658</v>
       </c>
-      <c r="E49" t="s">
-        <v>2059</v>
-      </c>
       <c r="F49" t="s">
+        <v>1740</v>
+      </c>
+      <c r="G49" t="s">
         <v>2060</v>
       </c>
-      <c r="G49" t="s">
+      <c r="H49" t="s">
         <v>2061</v>
       </c>
     </row>
-    <row r="50" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>2531</v>
+      </c>
       <c r="B50" s="15" t="s">
         <v>360</v>
       </c>
@@ -19613,17 +21147,20 @@
       <c r="D50" t="s">
         <v>2062</v>
       </c>
-      <c r="E50" t="s">
-        <v>2063</v>
-      </c>
       <c r="F50" t="s">
+        <v>1742</v>
+      </c>
+      <c r="G50" t="s">
         <v>2064</v>
       </c>
-      <c r="G50" t="s">
+      <c r="H50" t="s">
         <v>2065</v>
       </c>
     </row>
-    <row r="51" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>2531</v>
+      </c>
       <c r="B51" s="15" t="s">
         <v>2066</v>
       </c>
@@ -19633,17 +21170,20 @@
       <c r="D51" t="s">
         <v>667</v>
       </c>
-      <c r="E51" t="s">
-        <v>2067</v>
-      </c>
       <c r="F51" t="s">
+        <v>1743</v>
+      </c>
+      <c r="G51" t="s">
         <v>2068</v>
       </c>
-      <c r="G51" t="s">
+      <c r="H51" t="s">
         <v>2069</v>
       </c>
     </row>
-    <row r="52" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>2531</v>
+      </c>
       <c r="B52" s="15" t="s">
         <v>2066</v>
       </c>
@@ -19653,17 +21193,20 @@
       <c r="D52" t="s">
         <v>671</v>
       </c>
-      <c r="E52" t="s">
-        <v>2070</v>
-      </c>
       <c r="F52" t="s">
+        <v>1745</v>
+      </c>
+      <c r="G52" t="s">
         <v>2071</v>
       </c>
-      <c r="G52" t="s">
+      <c r="H52" t="s">
         <v>2072</v>
       </c>
     </row>
-    <row r="53" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>2531</v>
+      </c>
       <c r="B53" s="15" t="s">
         <v>2066</v>
       </c>
@@ -19673,17 +21216,20 @@
       <c r="D53" t="s">
         <v>675</v>
       </c>
-      <c r="E53" t="s">
-        <v>2073</v>
-      </c>
       <c r="F53" t="s">
+        <v>1747</v>
+      </c>
+      <c r="G53" t="s">
         <v>2074</v>
       </c>
-      <c r="G53" t="s">
+      <c r="H53" t="s">
         <v>2075</v>
       </c>
     </row>
-    <row r="54" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>2531</v>
+      </c>
       <c r="B54" s="15" t="s">
         <v>2066</v>
       </c>
@@ -19693,17 +21239,20 @@
       <c r="D54" t="s">
         <v>679</v>
       </c>
-      <c r="E54" t="s">
-        <v>2076</v>
-      </c>
       <c r="F54" t="s">
+        <v>1749</v>
+      </c>
+      <c r="G54" t="s">
         <v>2077</v>
       </c>
-      <c r="G54" t="s">
+      <c r="H54" t="s">
         <v>2078</v>
       </c>
     </row>
-    <row r="55" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>2531</v>
+      </c>
       <c r="B55" s="15" t="s">
         <v>2066</v>
       </c>
@@ -19713,17 +21262,20 @@
       <c r="D55" t="s">
         <v>2062</v>
       </c>
-      <c r="E55" t="s">
-        <v>2079</v>
-      </c>
       <c r="F55" t="s">
+        <v>1751</v>
+      </c>
+      <c r="G55" t="s">
         <v>2080</v>
       </c>
-      <c r="G55" t="s">
+      <c r="H55" t="s">
         <v>2081</v>
       </c>
     </row>
-    <row r="56" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>2531</v>
+      </c>
       <c r="B56" s="15" t="s">
         <v>101</v>
       </c>
@@ -19733,17 +21285,20 @@
       <c r="D56" t="s">
         <v>2082</v>
       </c>
-      <c r="E56" t="s">
-        <v>2083</v>
-      </c>
       <c r="F56" t="s">
+        <v>1752</v>
+      </c>
+      <c r="G56" t="s">
         <v>2084</v>
       </c>
-      <c r="G56" t="s">
+      <c r="H56" t="s">
         <v>2085</v>
       </c>
     </row>
-    <row r="57" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>2531</v>
+      </c>
       <c r="B57" s="15" t="s">
         <v>101</v>
       </c>
@@ -19753,17 +21308,20 @@
       <c r="D57" t="s">
         <v>1357</v>
       </c>
-      <c r="E57" t="s">
-        <v>2086</v>
-      </c>
       <c r="F57" t="s">
+        <v>1754</v>
+      </c>
+      <c r="G57" t="s">
         <v>2087</v>
       </c>
-      <c r="G57" t="s">
+      <c r="H57" t="s">
         <v>2088</v>
       </c>
     </row>
-    <row r="58" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>2531</v>
+      </c>
       <c r="B58" s="15" t="s">
         <v>101</v>
       </c>
@@ -19773,17 +21331,20 @@
       <c r="D58" t="s">
         <v>1441</v>
       </c>
-      <c r="E58" t="s">
-        <v>2089</v>
-      </c>
       <c r="F58" t="s">
+        <v>1756</v>
+      </c>
+      <c r="G58" t="s">
         <v>2090</v>
       </c>
-      <c r="G58" t="s">
+      <c r="H58" t="s">
         <v>2091</v>
       </c>
     </row>
-    <row r="59" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>2531</v>
+      </c>
       <c r="B59" s="15" t="s">
         <v>101</v>
       </c>
@@ -19793,17 +21354,20 @@
       <c r="D59" t="s">
         <v>2092</v>
       </c>
-      <c r="E59" t="s">
-        <v>2093</v>
-      </c>
       <c r="F59" t="s">
+        <v>1758</v>
+      </c>
+      <c r="G59" t="s">
         <v>2094</v>
       </c>
-      <c r="G59" t="s">
+      <c r="H59" t="s">
         <v>2095</v>
       </c>
     </row>
-    <row r="60" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>2531</v>
+      </c>
       <c r="B60" s="15" t="s">
         <v>101</v>
       </c>
@@ -19813,17 +21377,20 @@
       <c r="D60" t="s">
         <v>2096</v>
       </c>
-      <c r="E60" t="s">
-        <v>2097</v>
-      </c>
       <c r="F60" t="s">
+        <v>1760</v>
+      </c>
+      <c r="G60" t="s">
         <v>2098</v>
       </c>
-      <c r="G60" t="s">
+      <c r="H60" t="s">
         <v>2099</v>
       </c>
     </row>
-    <row r="61" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>2531</v>
+      </c>
       <c r="B61" s="15" t="s">
         <v>73</v>
       </c>
@@ -19833,17 +21400,20 @@
       <c r="D61" t="s">
         <v>2100</v>
       </c>
-      <c r="E61" t="s">
-        <v>2101</v>
-      </c>
       <c r="F61" t="s">
+        <v>1761</v>
+      </c>
+      <c r="G61" t="s">
         <v>2102</v>
       </c>
-      <c r="G61" t="s">
+      <c r="H61" t="s">
         <v>2103</v>
       </c>
     </row>
-    <row r="62" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>2531</v>
+      </c>
       <c r="B62" s="15" t="s">
         <v>73</v>
       </c>
@@ -19853,17 +21423,20 @@
       <c r="D62" t="s">
         <v>1433</v>
       </c>
-      <c r="E62" t="s">
-        <v>2104</v>
-      </c>
       <c r="F62" t="s">
+        <v>1763</v>
+      </c>
+      <c r="G62" t="s">
         <v>2105</v>
       </c>
-      <c r="G62" t="s">
+      <c r="H62" t="s">
         <v>2106</v>
       </c>
     </row>
-    <row r="63" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>2531</v>
+      </c>
       <c r="B63" s="15" t="s">
         <v>73</v>
       </c>
@@ -19873,17 +21446,20 @@
       <c r="D63" t="s">
         <v>1471</v>
       </c>
-      <c r="E63" t="s">
-        <v>2107</v>
-      </c>
       <c r="F63" t="s">
+        <v>1765</v>
+      </c>
+      <c r="G63" t="s">
         <v>2108</v>
       </c>
-      <c r="G63" t="s">
+      <c r="H63" t="s">
         <v>2109</v>
       </c>
     </row>
-    <row r="64" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>2531</v>
+      </c>
       <c r="B64" s="15" t="s">
         <v>73</v>
       </c>
@@ -19893,17 +21469,20 @@
       <c r="D64" t="s">
         <v>1414</v>
       </c>
-      <c r="E64" t="s">
-        <v>2110</v>
-      </c>
       <c r="F64" t="s">
+        <v>1767</v>
+      </c>
+      <c r="G64" t="s">
         <v>2111</v>
       </c>
-      <c r="G64" t="s">
+      <c r="H64" t="s">
         <v>2112</v>
       </c>
     </row>
-    <row r="65" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>2531</v>
+      </c>
       <c r="B65" s="15" t="s">
         <v>73</v>
       </c>
@@ -19913,17 +21492,20 @@
       <c r="D65" t="s">
         <v>2113</v>
       </c>
-      <c r="E65" t="s">
-        <v>2114</v>
-      </c>
       <c r="F65" t="s">
+        <v>1769</v>
+      </c>
+      <c r="G65" t="s">
         <v>2115</v>
       </c>
-      <c r="G65" t="s">
+      <c r="H65" t="s">
         <v>2116</v>
       </c>
     </row>
-    <row r="66" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>2531</v>
+      </c>
       <c r="B66" s="15" t="s">
         <v>80</v>
       </c>
@@ -19933,17 +21515,20 @@
       <c r="D66" t="s">
         <v>2082</v>
       </c>
-      <c r="E66" t="s">
-        <v>2117</v>
-      </c>
       <c r="F66" t="s">
+        <v>1770</v>
+      </c>
+      <c r="G66" t="s">
         <v>2118</v>
       </c>
-      <c r="G66" t="s">
+      <c r="H66" t="s">
         <v>2119</v>
       </c>
     </row>
-    <row r="67" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>2531</v>
+      </c>
       <c r="B67" s="15" t="s">
         <v>80</v>
       </c>
@@ -19953,17 +21538,20 @@
       <c r="D67" t="s">
         <v>1471</v>
       </c>
-      <c r="E67" t="s">
-        <v>2120</v>
-      </c>
       <c r="F67" t="s">
+        <v>1772</v>
+      </c>
+      <c r="G67" t="s">
         <v>2121</v>
       </c>
-      <c r="G67" t="s">
+      <c r="H67" t="s">
         <v>2122</v>
       </c>
     </row>
-    <row r="68" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>2531</v>
+      </c>
       <c r="B68" s="15" t="s">
         <v>80</v>
       </c>
@@ -19973,17 +21561,20 @@
       <c r="D68" t="s">
         <v>1491</v>
       </c>
-      <c r="E68" t="s">
-        <v>2123</v>
-      </c>
       <c r="F68" t="s">
+        <v>1774</v>
+      </c>
+      <c r="G68" t="s">
         <v>2124</v>
       </c>
-      <c r="G68" t="s">
+      <c r="H68" t="s">
         <v>2125</v>
       </c>
     </row>
-    <row r="69" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>2531</v>
+      </c>
       <c r="B69" s="15" t="s">
         <v>80</v>
       </c>
@@ -19993,17 +21584,20 @@
       <c r="D69" t="s">
         <v>1441</v>
       </c>
-      <c r="E69" t="s">
-        <v>2126</v>
-      </c>
       <c r="F69" t="s">
+        <v>1776</v>
+      </c>
+      <c r="G69" t="s">
         <v>2127</v>
       </c>
-      <c r="G69" t="s">
+      <c r="H69" t="s">
         <v>2128</v>
       </c>
     </row>
-    <row r="70" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>2531</v>
+      </c>
       <c r="B70" s="15" t="s">
         <v>80</v>
       </c>
@@ -20013,17 +21607,20 @@
       <c r="D70" t="s">
         <v>2129</v>
       </c>
-      <c r="E70" t="s">
-        <v>2130</v>
-      </c>
       <c r="F70" t="s">
+        <v>1778</v>
+      </c>
+      <c r="G70" t="s">
         <v>2131</v>
       </c>
-      <c r="G70" t="s">
+      <c r="H70" t="s">
         <v>2132</v>
       </c>
     </row>
-    <row r="71" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>2531</v>
+      </c>
       <c r="B71" s="15" t="s">
         <v>737</v>
       </c>
@@ -20034,16 +21631,22 @@
         <v>1902</v>
       </c>
       <c r="E71" t="s">
-        <v>2133</v>
+        <v>1691</v>
       </c>
       <c r="F71" t="s">
+        <v>1779</v>
+      </c>
+      <c r="G71" t="s">
         <v>2134</v>
       </c>
-      <c r="G71" t="s">
+      <c r="H71" t="s">
         <v>2135</v>
       </c>
     </row>
-    <row r="72" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>2531</v>
+      </c>
       <c r="B72" s="15" t="s">
         <v>737</v>
       </c>
@@ -20054,16 +21657,22 @@
         <v>1423</v>
       </c>
       <c r="E72" t="s">
-        <v>2136</v>
+        <v>1780</v>
       </c>
       <c r="F72" t="s">
+        <v>1781</v>
+      </c>
+      <c r="G72" t="s">
         <v>2137</v>
       </c>
-      <c r="G72" t="s">
+      <c r="H72" t="s">
         <v>2138</v>
       </c>
     </row>
-    <row r="73" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>2531</v>
+      </c>
       <c r="B73" s="15" t="s">
         <v>737</v>
       </c>
@@ -20074,16 +21683,22 @@
         <v>1433</v>
       </c>
       <c r="E73" t="s">
-        <v>2139</v>
+        <v>1782</v>
       </c>
       <c r="F73" t="s">
+        <v>1783</v>
+      </c>
+      <c r="G73" t="s">
         <v>2140</v>
       </c>
-      <c r="G73" t="s">
+      <c r="H73" t="s">
         <v>2141</v>
       </c>
     </row>
-    <row r="74" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>2531</v>
+      </c>
       <c r="B74" s="15" t="s">
         <v>737</v>
       </c>
@@ -20094,16 +21709,22 @@
         <v>1357</v>
       </c>
       <c r="E74" t="s">
-        <v>2142</v>
+        <v>1784</v>
       </c>
       <c r="F74" t="s">
+        <v>1785</v>
+      </c>
+      <c r="G74" t="s">
         <v>2143</v>
       </c>
-      <c r="G74" t="s">
+      <c r="H74" t="s">
         <v>2144</v>
       </c>
     </row>
-    <row r="75" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>2531</v>
+      </c>
       <c r="B75" s="15" t="s">
         <v>737</v>
       </c>
@@ -20114,16 +21735,22 @@
         <v>1915</v>
       </c>
       <c r="E75" t="s">
-        <v>2145</v>
+        <v>1786</v>
       </c>
       <c r="F75" t="s">
+        <v>1787</v>
+      </c>
+      <c r="G75" t="s">
         <v>2146</v>
       </c>
-      <c r="G75" t="s">
+      <c r="H75" t="s">
         <v>2147</v>
       </c>
     </row>
-    <row r="76" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>2531</v>
+      </c>
       <c r="B76" s="15" t="s">
         <v>750</v>
       </c>
@@ -20134,16 +21761,22 @@
         <v>2149</v>
       </c>
       <c r="E76" t="s">
-        <v>2150</v>
+        <v>1789</v>
       </c>
       <c r="F76" t="s">
+        <v>1790</v>
+      </c>
+      <c r="G76" t="s">
         <v>2151</v>
       </c>
-      <c r="G76" t="s">
+      <c r="H76" t="s">
         <v>2152</v>
       </c>
     </row>
-    <row r="77" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>2531</v>
+      </c>
       <c r="B77" s="15" t="s">
         <v>750</v>
       </c>
@@ -20154,16 +21787,22 @@
         <v>638</v>
       </c>
       <c r="E77" t="s">
-        <v>2153</v>
+        <v>1791</v>
       </c>
       <c r="F77" t="s">
+        <v>1792</v>
+      </c>
+      <c r="G77" t="s">
         <v>2154</v>
       </c>
-      <c r="G77" t="s">
+      <c r="H77" t="s">
         <v>2155</v>
       </c>
     </row>
-    <row r="78" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>2531</v>
+      </c>
       <c r="B78" s="15" t="s">
         <v>750</v>
       </c>
@@ -20174,16 +21813,22 @@
         <v>634</v>
       </c>
       <c r="E78" t="s">
-        <v>2156</v>
+        <v>1793</v>
       </c>
       <c r="F78" t="s">
+        <v>1794</v>
+      </c>
+      <c r="G78" t="s">
         <v>856</v>
       </c>
-      <c r="G78" t="s">
+      <c r="H78" t="s">
         <v>2157</v>
       </c>
     </row>
-    <row r="79" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>2531</v>
+      </c>
       <c r="B79" s="15" t="s">
         <v>750</v>
       </c>
@@ -20194,16 +21839,22 @@
         <v>630</v>
       </c>
       <c r="E79" t="s">
-        <v>2158</v>
+        <v>1795</v>
       </c>
       <c r="F79" t="s">
+        <v>1796</v>
+      </c>
+      <c r="G79" t="s">
         <v>2159</v>
       </c>
-      <c r="G79" t="s">
+      <c r="H79" t="s">
         <v>2160</v>
       </c>
     </row>
-    <row r="80" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>2531</v>
+      </c>
       <c r="B80" s="15" t="s">
         <v>750</v>
       </c>
@@ -20214,16 +21865,19 @@
         <v>2033</v>
       </c>
       <c r="E80" t="s">
-        <v>2161</v>
+        <v>1797</v>
       </c>
       <c r="F80" t="s">
+        <v>1798</v>
+      </c>
+      <c r="G80" t="s">
         <v>2162</v>
       </c>
-      <c r="G80" t="s">
+      <c r="H80" t="s">
         <v>2163</v>
       </c>
     </row>
-    <row r="81" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B81" s="15" t="s">
         <v>24</v>
       </c>
@@ -20233,17 +21887,17 @@
       <c r="D81" t="s">
         <v>2164</v>
       </c>
-      <c r="E81" t="s">
+      <c r="F81" t="s">
         <v>2165</v>
       </c>
-      <c r="F81" t="s">
+      <c r="G81" t="s">
         <v>2166</v>
       </c>
-      <c r="G81" t="s">
+      <c r="H81" t="s">
         <v>2167</v>
       </c>
     </row>
-    <row r="82" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B82" s="15" t="s">
         <v>24</v>
       </c>
@@ -20253,17 +21907,17 @@
       <c r="D82" t="s">
         <v>868</v>
       </c>
-      <c r="E82" t="s">
+      <c r="F82" t="s">
         <v>2168</v>
       </c>
-      <c r="F82" t="s">
+      <c r="G82" t="s">
         <v>2169</v>
       </c>
-      <c r="G82" t="s">
+      <c r="H82" t="s">
         <v>2170</v>
       </c>
     </row>
-    <row r="83" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B83" s="15" t="s">
         <v>24</v>
       </c>
@@ -20273,17 +21927,17 @@
       <c r="D83" t="s">
         <v>872</v>
       </c>
-      <c r="E83" t="s">
+      <c r="F83" t="s">
         <v>2171</v>
       </c>
-      <c r="F83" t="s">
+      <c r="G83" t="s">
         <v>2172</v>
       </c>
-      <c r="G83" t="s">
+      <c r="H83" t="s">
         <v>2173</v>
       </c>
     </row>
-    <row r="84" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B84" s="15" t="s">
         <v>24</v>
       </c>
@@ -20293,17 +21947,17 @@
       <c r="D84" t="s">
         <v>875</v>
       </c>
-      <c r="E84" t="s">
+      <c r="F84" t="s">
         <v>2174</v>
       </c>
-      <c r="F84" t="s">
+      <c r="G84" t="s">
         <v>2175</v>
       </c>
-      <c r="G84" t="s">
+      <c r="H84" t="s">
         <v>2176</v>
       </c>
     </row>
-    <row r="85" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B85" s="15" t="s">
         <v>24</v>
       </c>
@@ -20313,17 +21967,20 @@
       <c r="D85" t="s">
         <v>2177</v>
       </c>
-      <c r="E85" t="s">
+      <c r="F85" t="s">
         <v>2178</v>
       </c>
-      <c r="F85" t="s">
+      <c r="G85" t="s">
         <v>2179</v>
       </c>
-      <c r="G85" t="s">
+      <c r="H85" t="s">
         <v>2180</v>
       </c>
     </row>
-    <row r="86" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>2531</v>
+      </c>
       <c r="B86" s="15" t="s">
         <v>129</v>
       </c>
@@ -20334,16 +21991,22 @@
         <v>1902</v>
       </c>
       <c r="E86" t="s">
-        <v>2181</v>
+        <v>1691</v>
       </c>
       <c r="F86" t="s">
+        <v>1860</v>
+      </c>
+      <c r="G86" t="s">
         <v>2182</v>
       </c>
-      <c r="G86" t="s">
+      <c r="H86" t="s">
         <v>2183</v>
       </c>
     </row>
-    <row r="87" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>2531</v>
+      </c>
       <c r="B87" s="15" t="s">
         <v>129</v>
       </c>
@@ -20354,16 +22017,22 @@
         <v>1423</v>
       </c>
       <c r="E87" t="s">
-        <v>2184</v>
+        <v>1780</v>
       </c>
       <c r="F87" t="s">
+        <v>1861</v>
+      </c>
+      <c r="G87" t="s">
         <v>2185</v>
       </c>
-      <c r="G87" t="s">
+      <c r="H87" t="s">
         <v>2186</v>
       </c>
     </row>
-    <row r="88" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>2531</v>
+      </c>
       <c r="B88" s="15" t="s">
         <v>129</v>
       </c>
@@ -20374,16 +22043,22 @@
         <v>1433</v>
       </c>
       <c r="E88" t="s">
-        <v>2187</v>
+        <v>1862</v>
       </c>
       <c r="F88" t="s">
+        <v>1863</v>
+      </c>
+      <c r="G88" t="s">
         <v>2188</v>
       </c>
-      <c r="G88" t="s">
+      <c r="H88" t="s">
         <v>2189</v>
       </c>
     </row>
-    <row r="89" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>2531</v>
+      </c>
       <c r="B89" s="15" t="s">
         <v>129</v>
       </c>
@@ -20394,16 +22069,22 @@
         <v>1471</v>
       </c>
       <c r="E89" t="s">
-        <v>2190</v>
+        <v>1864</v>
       </c>
       <c r="F89" t="s">
+        <v>1865</v>
+      </c>
+      <c r="G89" t="s">
         <v>2191</v>
       </c>
-      <c r="G89" t="s">
+      <c r="H89" t="s">
         <v>2192</v>
       </c>
     </row>
-    <row r="90" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>2531</v>
+      </c>
       <c r="B90" s="15" t="s">
         <v>129</v>
       </c>
@@ -20414,16 +22095,22 @@
         <v>2193</v>
       </c>
       <c r="E90" t="s">
-        <v>2194</v>
+        <v>1866</v>
       </c>
       <c r="F90" t="s">
+        <v>1867</v>
+      </c>
+      <c r="G90" t="s">
         <v>2195</v>
       </c>
-      <c r="G90" t="s">
+      <c r="H90" t="s">
         <v>2196</v>
       </c>
     </row>
-    <row r="91" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>2531</v>
+      </c>
       <c r="B91" s="15" t="s">
         <v>135</v>
       </c>
@@ -20434,16 +22121,22 @@
         <v>1902</v>
       </c>
       <c r="E91" t="s">
-        <v>2197</v>
+        <v>1691</v>
       </c>
       <c r="F91" t="s">
+        <v>1868</v>
+      </c>
+      <c r="G91" t="s">
         <v>2198</v>
       </c>
-      <c r="G91" t="s">
+      <c r="H91" t="s">
         <v>2199</v>
       </c>
     </row>
-    <row r="92" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>2531</v>
+      </c>
       <c r="B92" s="15" t="s">
         <v>135</v>
       </c>
@@ -20454,16 +22147,22 @@
         <v>1347</v>
       </c>
       <c r="E92" t="s">
-        <v>2200</v>
+        <v>1762</v>
       </c>
       <c r="F92" t="s">
+        <v>1869</v>
+      </c>
+      <c r="G92" t="s">
         <v>2201</v>
       </c>
-      <c r="G92" t="s">
+      <c r="H92" t="s">
         <v>2202</v>
       </c>
     </row>
-    <row r="93" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>2531</v>
+      </c>
       <c r="B93" s="15" t="s">
         <v>135</v>
       </c>
@@ -20474,16 +22173,22 @@
         <v>1471</v>
       </c>
       <c r="E93" t="s">
-        <v>2203</v>
+        <v>1764</v>
       </c>
       <c r="F93" t="s">
+        <v>1870</v>
+      </c>
+      <c r="G93" t="s">
         <v>2204</v>
       </c>
-      <c r="G93" t="s">
+      <c r="H93" t="s">
         <v>2205</v>
       </c>
     </row>
-    <row r="94" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>2531</v>
+      </c>
       <c r="B94" s="15" t="s">
         <v>135</v>
       </c>
@@ -20494,16 +22199,22 @@
         <v>1491</v>
       </c>
       <c r="E94" t="s">
-        <v>2206</v>
+        <v>1766</v>
       </c>
       <c r="F94" t="s">
+        <v>1871</v>
+      </c>
+      <c r="G94" t="s">
         <v>2207</v>
       </c>
-      <c r="G94" t="s">
+      <c r="H94" t="s">
         <v>2208</v>
       </c>
     </row>
-    <row r="95" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>2531</v>
+      </c>
       <c r="B95" s="15" t="s">
         <v>135</v>
       </c>
@@ -20514,16 +22225,22 @@
         <v>1915</v>
       </c>
       <c r="E95" t="s">
-        <v>2209</v>
+        <v>1768</v>
       </c>
       <c r="F95" t="s">
+        <v>1872</v>
+      </c>
+      <c r="G95" t="s">
         <v>2210</v>
       </c>
-      <c r="G95" t="s">
+      <c r="H95" t="s">
         <v>2211</v>
       </c>
     </row>
-    <row r="96" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>2531</v>
+      </c>
       <c r="B96" s="15" t="s">
         <v>141</v>
       </c>
@@ -20534,16 +22251,22 @@
         <v>1902</v>
       </c>
       <c r="E96" t="s">
-        <v>2212</v>
+        <v>1691</v>
       </c>
       <c r="F96" t="s">
+        <v>1882</v>
+      </c>
+      <c r="G96" t="s">
         <v>2213</v>
       </c>
-      <c r="G96" t="s">
+      <c r="H96" t="s">
         <v>2214</v>
       </c>
     </row>
-    <row r="97" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>2531</v>
+      </c>
       <c r="B97" s="15" t="s">
         <v>141</v>
       </c>
@@ -20554,16 +22277,22 @@
         <v>1423</v>
       </c>
       <c r="E97" t="s">
-        <v>2215</v>
+        <v>1762</v>
       </c>
       <c r="F97" t="s">
+        <v>1883</v>
+      </c>
+      <c r="G97" t="s">
         <v>2216</v>
       </c>
-      <c r="G97" t="s">
+      <c r="H97" t="s">
         <v>2217</v>
       </c>
     </row>
-    <row r="98" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>2531</v>
+      </c>
       <c r="B98" s="15" t="s">
         <v>141</v>
       </c>
@@ -20574,16 +22303,22 @@
         <v>1433</v>
       </c>
       <c r="E98" t="s">
-        <v>2218</v>
+        <v>1884</v>
       </c>
       <c r="F98" t="s">
+        <v>1885</v>
+      </c>
+      <c r="G98" t="s">
         <v>2219</v>
       </c>
-      <c r="G98" t="s">
+      <c r="H98" t="s">
         <v>2220</v>
       </c>
     </row>
-    <row r="99" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>2531</v>
+      </c>
       <c r="B99" s="15" t="s">
         <v>141</v>
       </c>
@@ -20594,16 +22329,22 @@
         <v>1471</v>
       </c>
       <c r="E99" t="s">
-        <v>2221</v>
+        <v>1886</v>
       </c>
       <c r="F99" t="s">
+        <v>1887</v>
+      </c>
+      <c r="G99" t="s">
         <v>2222</v>
       </c>
-      <c r="G99" t="s">
+      <c r="H99" t="s">
         <v>2223</v>
       </c>
     </row>
-    <row r="100" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>2531</v>
+      </c>
       <c r="B100" s="15" t="s">
         <v>141</v>
       </c>
@@ -20614,16 +22355,22 @@
         <v>2193</v>
       </c>
       <c r="E100" t="s">
-        <v>2224</v>
+        <v>1786</v>
       </c>
       <c r="F100" t="s">
+        <v>1888</v>
+      </c>
+      <c r="G100" t="s">
         <v>2225</v>
       </c>
-      <c r="G100" t="s">
+      <c r="H100" t="s">
         <v>2226</v>
       </c>
     </row>
-    <row r="101" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>2531</v>
+      </c>
       <c r="B101" s="15" t="s">
         <v>146</v>
       </c>
@@ -20634,16 +22381,22 @@
         <v>667</v>
       </c>
       <c r="E101" t="s">
-        <v>2227</v>
+        <v>1691</v>
       </c>
       <c r="F101" t="s">
+        <v>1889</v>
+      </c>
+      <c r="G101" t="s">
         <v>2228</v>
       </c>
-      <c r="G101" t="s">
+      <c r="H101" t="s">
         <v>2229</v>
       </c>
     </row>
-    <row r="102" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>2531</v>
+      </c>
       <c r="B102" s="15" t="s">
         <v>146</v>
       </c>
@@ -20654,16 +22407,22 @@
         <v>946</v>
       </c>
       <c r="E102" t="s">
-        <v>2230</v>
+        <v>1744</v>
       </c>
       <c r="F102" t="s">
+        <v>1890</v>
+      </c>
+      <c r="G102" t="s">
         <v>2231</v>
       </c>
-      <c r="G102" t="s">
+      <c r="H102" t="s">
         <v>2232</v>
       </c>
     </row>
-    <row r="103" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>2531</v>
+      </c>
       <c r="B103" s="15" t="s">
         <v>146</v>
       </c>
@@ -20674,16 +22433,22 @@
         <v>948</v>
       </c>
       <c r="E103" t="s">
-        <v>2233</v>
+        <v>1746</v>
       </c>
       <c r="F103" t="s">
+        <v>1891</v>
+      </c>
+      <c r="G103" t="s">
         <v>2234</v>
       </c>
-      <c r="G103" t="s">
+      <c r="H103" t="s">
         <v>2235</v>
       </c>
     </row>
-    <row r="104" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>2531</v>
+      </c>
       <c r="B104" s="15" t="s">
         <v>146</v>
       </c>
@@ -20694,16 +22459,22 @@
         <v>951</v>
       </c>
       <c r="E104" t="s">
-        <v>2236</v>
+        <v>1748</v>
       </c>
       <c r="F104" t="s">
+        <v>1892</v>
+      </c>
+      <c r="G104" t="s">
         <v>2237</v>
       </c>
-      <c r="G104" t="s">
+      <c r="H104" t="s">
         <v>2238</v>
       </c>
     </row>
-    <row r="105" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>2531</v>
+      </c>
       <c r="B105" s="15" t="s">
         <v>146</v>
       </c>
@@ -20714,16 +22485,22 @@
         <v>2239</v>
       </c>
       <c r="E105" t="s">
-        <v>2240</v>
+        <v>1750</v>
       </c>
       <c r="F105" t="s">
+        <v>1893</v>
+      </c>
+      <c r="G105" t="s">
         <v>2241</v>
       </c>
-      <c r="G105" t="s">
+      <c r="H105" t="s">
         <v>2242</v>
       </c>
     </row>
-    <row r="106" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>2531</v>
+      </c>
       <c r="B106" s="15" t="s">
         <v>799</v>
       </c>
@@ -20734,16 +22511,22 @@
         <v>1999</v>
       </c>
       <c r="E106" t="s">
-        <v>2244</v>
+        <v>1816</v>
       </c>
       <c r="F106" t="s">
+        <v>1817</v>
+      </c>
+      <c r="G106" t="s">
         <v>2245</v>
       </c>
-      <c r="G106" t="s">
+      <c r="H106" t="s">
         <v>2246</v>
       </c>
     </row>
-    <row r="107" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>2531</v>
+      </c>
       <c r="B107" s="15" t="s">
         <v>799</v>
       </c>
@@ -20754,16 +22537,22 @@
         <v>593</v>
       </c>
       <c r="E107" t="s">
-        <v>2247</v>
+        <v>1818</v>
       </c>
       <c r="F107" t="s">
+        <v>1819</v>
+      </c>
+      <c r="G107" t="s">
         <v>2248</v>
       </c>
-      <c r="G107" t="s">
+      <c r="H107" t="s">
         <v>2249</v>
       </c>
     </row>
-    <row r="108" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>2531</v>
+      </c>
       <c r="B108" s="15" t="s">
         <v>799</v>
       </c>
@@ -20774,16 +22563,22 @@
         <v>597</v>
       </c>
       <c r="E108" t="s">
-        <v>2250</v>
+        <v>1820</v>
       </c>
       <c r="F108" t="s">
+        <v>1821</v>
+      </c>
+      <c r="G108" t="s">
         <v>2251</v>
       </c>
-      <c r="G108" t="s">
+      <c r="H108" t="s">
         <v>2252</v>
       </c>
     </row>
-    <row r="109" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>2531</v>
+      </c>
       <c r="B109" s="15" t="s">
         <v>799</v>
       </c>
@@ -20794,16 +22589,22 @@
         <v>601</v>
       </c>
       <c r="E109" t="s">
-        <v>2253</v>
+        <v>1709</v>
       </c>
       <c r="F109" t="s">
+        <v>1822</v>
+      </c>
+      <c r="G109" t="s">
         <v>2254</v>
       </c>
-      <c r="G109" t="s">
+      <c r="H109" t="s">
         <v>2255</v>
       </c>
     </row>
-    <row r="110" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>2531</v>
+      </c>
       <c r="B110" s="15" t="s">
         <v>799</v>
       </c>
@@ -20814,16 +22615,22 @@
         <v>2256</v>
       </c>
       <c r="E110" t="s">
-        <v>2257</v>
+        <v>1711</v>
       </c>
       <c r="F110" t="s">
+        <v>1823</v>
+      </c>
+      <c r="G110" t="s">
         <v>2258</v>
       </c>
-      <c r="G110" t="s">
+      <c r="H110" t="s">
         <v>2259</v>
       </c>
     </row>
-    <row r="111" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>2531</v>
+      </c>
       <c r="B111" s="15" t="s">
         <v>816</v>
       </c>
@@ -20834,16 +22641,22 @@
         <v>2016</v>
       </c>
       <c r="E111" t="s">
-        <v>2260</v>
+        <v>1703</v>
       </c>
       <c r="F111" t="s">
+        <v>1824</v>
+      </c>
+      <c r="G111" t="s">
         <v>2261</v>
       </c>
-      <c r="G111" t="s">
+      <c r="H111" t="s">
         <v>2262</v>
       </c>
     </row>
-    <row r="112" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>2531</v>
+      </c>
       <c r="B112" s="15" t="s">
         <v>816</v>
       </c>
@@ -20854,16 +22667,22 @@
         <v>597</v>
       </c>
       <c r="E112" t="s">
-        <v>2263</v>
+        <v>1825</v>
       </c>
       <c r="F112" t="s">
+        <v>1826</v>
+      </c>
+      <c r="G112" t="s">
         <v>2264</v>
       </c>
-      <c r="G112" t="s">
+      <c r="H112" t="s">
         <v>2265</v>
       </c>
     </row>
-    <row r="113" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>2531</v>
+      </c>
       <c r="B113" s="15" t="s">
         <v>816</v>
       </c>
@@ -20874,16 +22693,22 @@
         <v>615</v>
       </c>
       <c r="E113" t="s">
-        <v>2266</v>
+        <v>1717</v>
       </c>
       <c r="F113" t="s">
+        <v>1827</v>
+      </c>
+      <c r="G113" t="s">
         <v>2267</v>
       </c>
-      <c r="G113" t="s">
+      <c r="H113" t="s">
         <v>2268</v>
       </c>
     </row>
-    <row r="114" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>2531</v>
+      </c>
       <c r="B114" s="15" t="s">
         <v>816</v>
       </c>
@@ -20894,16 +22719,22 @@
         <v>618</v>
       </c>
       <c r="E114" t="s">
-        <v>2269</v>
+        <v>1719</v>
       </c>
       <c r="F114" t="s">
+        <v>1828</v>
+      </c>
+      <c r="G114" t="s">
         <v>2270</v>
       </c>
-      <c r="G114" t="s">
+      <c r="H114" t="s">
         <v>2271</v>
       </c>
     </row>
-    <row r="115" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>2531</v>
+      </c>
       <c r="B115" s="15" t="s">
         <v>816</v>
       </c>
@@ -20914,16 +22745,19 @@
         <v>2272</v>
       </c>
       <c r="E115" t="s">
-        <v>2273</v>
+        <v>1721</v>
       </c>
       <c r="F115" t="s">
+        <v>1829</v>
+      </c>
+      <c r="G115" t="s">
         <v>2274</v>
       </c>
-      <c r="G115" t="s">
+      <c r="H115" t="s">
         <v>2275</v>
       </c>
     </row>
-    <row r="116" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B116" s="15" t="s">
         <v>832</v>
       </c>
@@ -20933,17 +22767,17 @@
       <c r="D116" t="s">
         <v>2276</v>
       </c>
-      <c r="E116" t="s">
+      <c r="F116" t="s">
         <v>2277</v>
       </c>
-      <c r="F116" t="s">
+      <c r="G116" t="s">
         <v>2278</v>
       </c>
-      <c r="G116" t="s">
+      <c r="H116" t="s">
         <v>2279</v>
       </c>
     </row>
-    <row r="117" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B117" s="15" t="s">
         <v>832</v>
       </c>
@@ -20953,17 +22787,17 @@
       <c r="D117" t="s">
         <v>2280</v>
       </c>
-      <c r="E117" t="s">
+      <c r="F117" t="s">
         <v>2281</v>
       </c>
-      <c r="F117" t="s">
+      <c r="G117" t="s">
         <v>2282</v>
       </c>
-      <c r="G117" t="s">
+      <c r="H117" t="s">
         <v>2283</v>
       </c>
     </row>
-    <row r="118" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B118" s="15" t="s">
         <v>832</v>
       </c>
@@ -20973,17 +22807,17 @@
       <c r="D118" t="s">
         <v>593</v>
       </c>
-      <c r="E118" t="s">
+      <c r="F118" t="s">
         <v>2284</v>
       </c>
-      <c r="F118" t="s">
+      <c r="G118" t="s">
         <v>2285</v>
       </c>
-      <c r="G118" t="s">
+      <c r="H118" t="s">
         <v>2286</v>
       </c>
     </row>
-    <row r="119" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B119" s="15" t="s">
         <v>832</v>
       </c>
@@ -20993,17 +22827,17 @@
       <c r="D119" t="s">
         <v>597</v>
       </c>
-      <c r="E119" t="s">
+      <c r="F119" t="s">
         <v>2287</v>
       </c>
-      <c r="F119" t="s">
+      <c r="G119" t="s">
         <v>2288</v>
       </c>
-      <c r="G119" t="s">
+      <c r="H119" t="s">
         <v>2289</v>
       </c>
     </row>
-    <row r="120" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B120" s="15" t="s">
         <v>832</v>
       </c>
@@ -21013,17 +22847,17 @@
       <c r="D120" t="s">
         <v>2290</v>
       </c>
-      <c r="E120" t="s">
+      <c r="F120" t="s">
         <v>2291</v>
       </c>
-      <c r="F120" t="s">
+      <c r="G120" t="s">
         <v>2014</v>
       </c>
-      <c r="G120" t="s">
+      <c r="H120" t="s">
         <v>2292</v>
       </c>
     </row>
-    <row r="121" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B121" s="15" t="s">
         <v>847</v>
       </c>
@@ -21033,17 +22867,17 @@
       <c r="D121" t="s">
         <v>2293</v>
       </c>
-      <c r="E121" t="s">
+      <c r="F121" t="s">
         <v>2294</v>
       </c>
-      <c r="F121" t="s">
+      <c r="G121" t="s">
         <v>2295</v>
       </c>
-      <c r="G121" t="s">
+      <c r="H121" t="s">
         <v>2296</v>
       </c>
     </row>
-    <row r="122" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B122" s="15" t="s">
         <v>847</v>
       </c>
@@ -21053,17 +22887,17 @@
       <c r="D122" t="s">
         <v>888</v>
       </c>
-      <c r="E122" t="s">
+      <c r="F122" t="s">
         <v>2297</v>
       </c>
-      <c r="F122" t="s">
+      <c r="G122" t="s">
         <v>2298</v>
       </c>
-      <c r="G122" t="s">
+      <c r="H122" t="s">
         <v>2299</v>
       </c>
     </row>
-    <row r="123" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B123" s="15" t="s">
         <v>847</v>
       </c>
@@ -21073,17 +22907,17 @@
       <c r="D123" t="s">
         <v>638</v>
       </c>
-      <c r="E123" t="s">
+      <c r="F123" t="s">
         <v>2300</v>
       </c>
-      <c r="F123" t="s">
+      <c r="G123" t="s">
         <v>2301</v>
       </c>
-      <c r="G123" t="s">
+      <c r="H123" t="s">
         <v>2302</v>
       </c>
     </row>
-    <row r="124" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B124" s="15" t="s">
         <v>847</v>
       </c>
@@ -21093,17 +22927,17 @@
       <c r="D124" t="s">
         <v>634</v>
       </c>
-      <c r="E124" t="s">
+      <c r="F124" t="s">
         <v>2303</v>
       </c>
-      <c r="F124" t="s">
+      <c r="G124" t="s">
         <v>2304</v>
       </c>
-      <c r="G124" t="s">
+      <c r="H124" t="s">
         <v>2305</v>
       </c>
     </row>
-    <row r="125" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B125" s="15" t="s">
         <v>847</v>
       </c>
@@ -21113,17 +22947,17 @@
       <c r="D125" t="s">
         <v>634</v>
       </c>
-      <c r="E125" t="s">
+      <c r="F125" t="s">
         <v>2306</v>
       </c>
-      <c r="F125" t="s">
+      <c r="G125" t="s">
         <v>2159</v>
       </c>
-      <c r="G125" t="s">
+      <c r="H125" t="s">
         <v>2307</v>
       </c>
     </row>
-    <row r="126" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B126" s="15" t="s">
         <v>847</v>
       </c>
@@ -21133,17 +22967,20 @@
       <c r="D126" t="s">
         <v>2308</v>
       </c>
-      <c r="E126" t="s">
+      <c r="F126" t="s">
         <v>2309</v>
       </c>
-      <c r="F126" t="s">
+      <c r="G126" t="s">
         <v>2310</v>
       </c>
-      <c r="G126" t="s">
+      <c r="H126" t="s">
         <v>2311</v>
       </c>
     </row>
-    <row r="127" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>2531</v>
+      </c>
       <c r="B127" s="15" t="s">
         <v>2312</v>
       </c>
@@ -21154,16 +22991,22 @@
         <v>2313</v>
       </c>
       <c r="E127" t="s">
-        <v>2314</v>
+        <v>1808</v>
       </c>
       <c r="F127" t="s">
+        <v>1855</v>
+      </c>
+      <c r="G127" t="s">
         <v>2315</v>
       </c>
-      <c r="G127" t="s">
+      <c r="H127" t="s">
         <v>2316</v>
       </c>
     </row>
-    <row r="128" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>2531</v>
+      </c>
       <c r="B128" s="15" t="s">
         <v>2312</v>
       </c>
@@ -21174,16 +23017,22 @@
         <v>888</v>
       </c>
       <c r="E128" t="s">
-        <v>2317</v>
+        <v>1810</v>
       </c>
       <c r="F128" t="s">
+        <v>1856</v>
+      </c>
+      <c r="G128" t="s">
         <v>2318</v>
       </c>
-      <c r="G128" t="s">
+      <c r="H128" t="s">
         <v>2319</v>
       </c>
     </row>
-    <row r="129" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>2531</v>
+      </c>
       <c r="B129" s="15" t="s">
         <v>2312</v>
       </c>
@@ -21194,16 +23043,22 @@
         <v>892</v>
       </c>
       <c r="E129" t="s">
-        <v>2320</v>
+        <v>1812</v>
       </c>
       <c r="F129" t="s">
+        <v>1857</v>
+      </c>
+      <c r="G129" t="s">
         <v>2321</v>
       </c>
-      <c r="G129" t="s">
+      <c r="H129" t="s">
         <v>2322</v>
       </c>
     </row>
-    <row r="130" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>2531</v>
+      </c>
       <c r="B130" s="15" t="s">
         <v>2312</v>
       </c>
@@ -21214,16 +23069,22 @@
         <v>630</v>
       </c>
       <c r="E130" t="s">
-        <v>2323</v>
+        <v>1748</v>
       </c>
       <c r="F130" t="s">
+        <v>1858</v>
+      </c>
+      <c r="G130" t="s">
         <v>2324</v>
       </c>
-      <c r="G130" t="s">
+      <c r="H130" t="s">
         <v>2325</v>
       </c>
     </row>
-    <row r="131" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>2531</v>
+      </c>
       <c r="B131" s="15" t="s">
         <v>2312</v>
       </c>
@@ -21234,16 +23095,19 @@
         <v>2033</v>
       </c>
       <c r="E131" t="s">
-        <v>2326</v>
+        <v>1806</v>
       </c>
       <c r="F131" t="s">
+        <v>1859</v>
+      </c>
+      <c r="G131" t="s">
         <v>2327</v>
       </c>
-      <c r="G131" t="s">
+      <c r="H131" t="s">
         <v>2328</v>
       </c>
     </row>
-    <row r="132" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B132" s="15" t="s">
         <v>863</v>
       </c>
@@ -21253,17 +23117,17 @@
       <c r="D132" t="s">
         <v>2164</v>
       </c>
-      <c r="E132" t="s">
+      <c r="F132" t="s">
         <v>2329</v>
       </c>
-      <c r="F132" t="s">
+      <c r="G132" t="s">
         <v>2330</v>
       </c>
-      <c r="G132" t="s">
+      <c r="H132" t="s">
         <v>2331</v>
       </c>
     </row>
-    <row r="133" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B133" s="15" t="s">
         <v>863</v>
       </c>
@@ -21273,17 +23137,17 @@
       <c r="D133" t="s">
         <v>868</v>
       </c>
-      <c r="E133" t="s">
+      <c r="F133" t="s">
         <v>2332</v>
       </c>
-      <c r="F133" t="s">
+      <c r="G133" t="s">
         <v>2333</v>
       </c>
-      <c r="G133" t="s">
+      <c r="H133" t="s">
         <v>2334</v>
       </c>
     </row>
-    <row r="134" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B134" s="15" t="s">
         <v>863</v>
       </c>
@@ -21293,17 +23157,17 @@
       <c r="D134" t="s">
         <v>872</v>
       </c>
-      <c r="E134" t="s">
+      <c r="F134" t="s">
         <v>2335</v>
       </c>
-      <c r="F134" t="s">
+      <c r="G134" t="s">
         <v>2336</v>
       </c>
-      <c r="G134" t="s">
+      <c r="H134" t="s">
         <v>2337</v>
       </c>
     </row>
-    <row r="135" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B135" s="15" t="s">
         <v>863</v>
       </c>
@@ -21313,17 +23177,17 @@
       <c r="D135" t="s">
         <v>875</v>
       </c>
-      <c r="E135" t="s">
+      <c r="F135" t="s">
         <v>2338</v>
       </c>
-      <c r="F135" t="s">
+      <c r="G135" t="s">
         <v>2339</v>
       </c>
-      <c r="G135" t="s">
+      <c r="H135" t="s">
         <v>2340</v>
       </c>
     </row>
-    <row r="136" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B136" s="15" t="s">
         <v>863</v>
       </c>
@@ -21333,17 +23197,17 @@
       <c r="D136" t="s">
         <v>2177</v>
       </c>
-      <c r="E136" t="s">
+      <c r="F136" t="s">
         <v>2341</v>
       </c>
-      <c r="F136" t="s">
+      <c r="G136" t="s">
         <v>2342</v>
       </c>
-      <c r="G136" t="s">
+      <c r="H136" t="s">
         <v>2343</v>
       </c>
     </row>
-    <row r="137" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B137" s="15" t="s">
         <v>24</v>
       </c>
@@ -21353,17 +23217,17 @@
       <c r="D137" t="s">
         <v>2164</v>
       </c>
-      <c r="E137" t="s">
+      <c r="F137" t="s">
         <v>2344</v>
       </c>
-      <c r="F137" t="s">
+      <c r="G137" t="s">
         <v>2345</v>
       </c>
-      <c r="G137" t="s">
+      <c r="H137" t="s">
         <v>2346</v>
       </c>
     </row>
-    <row r="138" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B138" s="15" t="s">
         <v>24</v>
       </c>
@@ -21373,17 +23237,17 @@
       <c r="D138" t="s">
         <v>868</v>
       </c>
-      <c r="E138" t="s">
+      <c r="F138" t="s">
         <v>2347</v>
       </c>
-      <c r="F138" t="s">
+      <c r="G138" t="s">
         <v>2348</v>
       </c>
-      <c r="G138" t="s">
+      <c r="H138" t="s">
         <v>2349</v>
       </c>
     </row>
-    <row r="139" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B139" s="15" t="s">
         <v>24</v>
       </c>
@@ -21393,17 +23257,17 @@
       <c r="D139" t="s">
         <v>872</v>
       </c>
-      <c r="E139" t="s">
+      <c r="F139" t="s">
         <v>2350</v>
       </c>
-      <c r="F139" t="s">
+      <c r="G139" t="s">
         <v>2351</v>
       </c>
-      <c r="G139" t="s">
+      <c r="H139" t="s">
         <v>2352</v>
       </c>
     </row>
-    <row r="140" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B140" s="15" t="s">
         <v>24</v>
       </c>
@@ -21413,17 +23277,17 @@
       <c r="D140" t="s">
         <v>875</v>
       </c>
-      <c r="E140" t="s">
+      <c r="F140" t="s">
         <v>2353</v>
       </c>
-      <c r="F140" t="s">
+      <c r="G140" t="s">
         <v>2354</v>
       </c>
-      <c r="G140" t="s">
+      <c r="H140" t="s">
         <v>2355</v>
       </c>
     </row>
-    <row r="141" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B141" s="15" t="s">
         <v>24</v>
       </c>
@@ -21433,21 +23297,21 @@
       <c r="D141" t="s">
         <v>2177</v>
       </c>
-      <c r="E141" t="s">
+      <c r="F141" t="s">
         <v>2356</v>
       </c>
-      <c r="F141" t="s">
+      <c r="G141" t="s">
         <v>2357</v>
       </c>
-      <c r="G141" t="s">
+      <c r="H141" t="s">
         <v>2358</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:G141" xr:uid="{C1ACF17C-8AD9-46C4-A02A-6070452A9A42}">
-    <filterColumn colId="0">
+  <autoFilter ref="A1:H141" xr:uid="{C1ACF17C-8AD9-46C4-A02A-6070452A9A42}">
+    <filterColumn colId="1">
       <filters>
-        <filter val="EV/EBIT"/>
+        <filter val="Patrimônio/Ativos"/>
       </filters>
     </filterColumn>
   </autoFilter>
